--- a/Bevoelkerungsdichte.xlsx
+++ b/Bevoelkerungsdichte.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grigorijschleifer/Desktop/R/EJA-ESAIC-survey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8831424-EBFF-7E4F-94CE-3888656D7804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="17595" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="40" windowWidth="10000" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flächen und Bevölkerungsdichte" sheetId="1" r:id="rId1"/>
@@ -463,19 +469,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="mmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="85" x14ac:knownFonts="1">
+  <fonts count="85">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1598,7 +1604,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1132">
+  <cellStyleXfs count="1108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1624,11 +1630,6 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -1639,7 +1640,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1916,21 +1916,15 @@
     <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1965,7 +1959,6 @@
     <xf numFmtId="0" fontId="35" fillId="46" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1988,14 +1981,13 @@
     <xf numFmtId="170" fontId="71" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="72" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="72" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="47" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="58" fillId="55" borderId="19">
@@ -2011,52 +2003,6 @@
     <xf numFmtId="0" fontId="59" fillId="55" borderId="19">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2084,8 +2030,53 @@
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="57" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="164" fontId="57" fillId="0" borderId="23"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="57" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="57" fillId="0" borderId="23"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="45" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2101,7 +2092,6 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2121,10 +2111,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2145,13 +2131,12 @@
     <xf numFmtId="0" fontId="51" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="78" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2170,11 +2155,9 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -2389,7 +2372,7 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2401,7 +2384,6 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2633,22 +2615,22 @@
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -2781,6 +2763,18 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1106" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2789,7 +2783,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2803,1152 +2797,1116 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1130" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1132">
-    <cellStyle name="20 % - Akzent1 2" xfId="46"/>
-    <cellStyle name="20 % - Akzent1 2 2" xfId="47"/>
-    <cellStyle name="20 % - Akzent1 2 2 2" xfId="48"/>
-    <cellStyle name="20 % - Akzent1 2 2 2 2" xfId="49"/>
-    <cellStyle name="20 % - Akzent1 2 2 2 2 2" xfId="50"/>
-    <cellStyle name="20 % - Akzent1 2 2 2 2 2 2" xfId="798"/>
-    <cellStyle name="20 % - Akzent1 2 2 2 2 3" xfId="797"/>
-    <cellStyle name="20 % - Akzent1 2 2 2 3" xfId="51"/>
-    <cellStyle name="20 % - Akzent1 2 2 2 3 2" xfId="799"/>
-    <cellStyle name="20 % - Akzent1 2 2 2 4" xfId="796"/>
-    <cellStyle name="20 % - Akzent1 2 2 3" xfId="52"/>
-    <cellStyle name="20 % - Akzent1 2 2 3 2" xfId="53"/>
-    <cellStyle name="20 % - Akzent1 2 2 3 2 2" xfId="801"/>
-    <cellStyle name="20 % - Akzent1 2 2 3 3" xfId="800"/>
-    <cellStyle name="20 % - Akzent1 2 2 4" xfId="54"/>
-    <cellStyle name="20 % - Akzent1 2 2 4 2" xfId="802"/>
-    <cellStyle name="20 % - Akzent1 2 2 5" xfId="795"/>
-    <cellStyle name="20 % - Akzent1 2 3" xfId="55"/>
-    <cellStyle name="20 % - Akzent1 2 3 2" xfId="56"/>
-    <cellStyle name="20 % - Akzent1 2 3 2 2" xfId="57"/>
-    <cellStyle name="20 % - Akzent1 2 3 2 2 2" xfId="805"/>
-    <cellStyle name="20 % - Akzent1 2 3 2 3" xfId="804"/>
-    <cellStyle name="20 % - Akzent1 2 3 3" xfId="58"/>
-    <cellStyle name="20 % - Akzent1 2 3 3 2" xfId="806"/>
-    <cellStyle name="20 % - Akzent1 2 3 4" xfId="803"/>
-    <cellStyle name="20 % - Akzent1 2 4" xfId="59"/>
-    <cellStyle name="20 % - Akzent1 2 4 2" xfId="60"/>
-    <cellStyle name="20 % - Akzent1 2 4 2 2" xfId="808"/>
-    <cellStyle name="20 % - Akzent1 2 4 3" xfId="807"/>
-    <cellStyle name="20 % - Akzent1 2 5" xfId="61"/>
-    <cellStyle name="20 % - Akzent1 2 5 2" xfId="62"/>
-    <cellStyle name="20 % - Akzent1 2 5 2 2" xfId="810"/>
-    <cellStyle name="20 % - Akzent1 2 5 3" xfId="809"/>
-    <cellStyle name="20 % - Akzent2 2" xfId="63"/>
-    <cellStyle name="20 % - Akzent2 2 2" xfId="64"/>
-    <cellStyle name="20 % - Akzent2 2 2 2" xfId="65"/>
-    <cellStyle name="20 % - Akzent2 2 2 2 2" xfId="66"/>
-    <cellStyle name="20 % - Akzent2 2 2 2 2 2" xfId="67"/>
-    <cellStyle name="20 % - Akzent2 2 2 2 2 2 2" xfId="814"/>
-    <cellStyle name="20 % - Akzent2 2 2 2 2 3" xfId="813"/>
-    <cellStyle name="20 % - Akzent2 2 2 2 3" xfId="68"/>
-    <cellStyle name="20 % - Akzent2 2 2 2 3 2" xfId="815"/>
-    <cellStyle name="20 % - Akzent2 2 2 2 4" xfId="812"/>
-    <cellStyle name="20 % - Akzent2 2 2 3" xfId="69"/>
-    <cellStyle name="20 % - Akzent2 2 2 3 2" xfId="70"/>
-    <cellStyle name="20 % - Akzent2 2 2 3 2 2" xfId="817"/>
-    <cellStyle name="20 % - Akzent2 2 2 3 3" xfId="816"/>
-    <cellStyle name="20 % - Akzent2 2 2 4" xfId="71"/>
-    <cellStyle name="20 % - Akzent2 2 2 4 2" xfId="818"/>
-    <cellStyle name="20 % - Akzent2 2 2 5" xfId="811"/>
-    <cellStyle name="20 % - Akzent2 2 3" xfId="72"/>
-    <cellStyle name="20 % - Akzent2 2 3 2" xfId="73"/>
-    <cellStyle name="20 % - Akzent2 2 3 2 2" xfId="74"/>
-    <cellStyle name="20 % - Akzent2 2 3 2 2 2" xfId="821"/>
-    <cellStyle name="20 % - Akzent2 2 3 2 3" xfId="820"/>
-    <cellStyle name="20 % - Akzent2 2 3 3" xfId="75"/>
-    <cellStyle name="20 % - Akzent2 2 3 3 2" xfId="822"/>
-    <cellStyle name="20 % - Akzent2 2 3 4" xfId="819"/>
-    <cellStyle name="20 % - Akzent2 2 4" xfId="76"/>
-    <cellStyle name="20 % - Akzent2 2 4 2" xfId="77"/>
-    <cellStyle name="20 % - Akzent2 2 4 2 2" xfId="824"/>
-    <cellStyle name="20 % - Akzent2 2 4 3" xfId="823"/>
-    <cellStyle name="20 % - Akzent2 2 5" xfId="78"/>
-    <cellStyle name="20 % - Akzent2 2 5 2" xfId="79"/>
-    <cellStyle name="20 % - Akzent2 2 5 2 2" xfId="826"/>
-    <cellStyle name="20 % - Akzent2 2 5 3" xfId="825"/>
-    <cellStyle name="20 % - Akzent3 2" xfId="80"/>
-    <cellStyle name="20 % - Akzent3 2 2" xfId="81"/>
-    <cellStyle name="20 % - Akzent3 2 2 2" xfId="82"/>
-    <cellStyle name="20 % - Akzent3 2 2 2 2" xfId="83"/>
-    <cellStyle name="20 % - Akzent3 2 2 2 2 2" xfId="84"/>
-    <cellStyle name="20 % - Akzent3 2 2 2 2 2 2" xfId="830"/>
-    <cellStyle name="20 % - Akzent3 2 2 2 2 3" xfId="829"/>
-    <cellStyle name="20 % - Akzent3 2 2 2 3" xfId="85"/>
-    <cellStyle name="20 % - Akzent3 2 2 2 3 2" xfId="831"/>
-    <cellStyle name="20 % - Akzent3 2 2 2 4" xfId="828"/>
-    <cellStyle name="20 % - Akzent3 2 2 3" xfId="86"/>
-    <cellStyle name="20 % - Akzent3 2 2 3 2" xfId="87"/>
-    <cellStyle name="20 % - Akzent3 2 2 3 2 2" xfId="833"/>
-    <cellStyle name="20 % - Akzent3 2 2 3 3" xfId="832"/>
-    <cellStyle name="20 % - Akzent3 2 2 4" xfId="88"/>
-    <cellStyle name="20 % - Akzent3 2 2 4 2" xfId="834"/>
-    <cellStyle name="20 % - Akzent3 2 2 5" xfId="827"/>
-    <cellStyle name="20 % - Akzent3 2 3" xfId="89"/>
-    <cellStyle name="20 % - Akzent3 2 3 2" xfId="90"/>
-    <cellStyle name="20 % - Akzent3 2 3 2 2" xfId="91"/>
-    <cellStyle name="20 % - Akzent3 2 3 2 2 2" xfId="837"/>
-    <cellStyle name="20 % - Akzent3 2 3 2 3" xfId="836"/>
-    <cellStyle name="20 % - Akzent3 2 3 3" xfId="92"/>
-    <cellStyle name="20 % - Akzent3 2 3 3 2" xfId="838"/>
-    <cellStyle name="20 % - Akzent3 2 3 4" xfId="835"/>
-    <cellStyle name="20 % - Akzent3 2 4" xfId="93"/>
-    <cellStyle name="20 % - Akzent3 2 4 2" xfId="94"/>
-    <cellStyle name="20 % - Akzent3 2 4 2 2" xfId="840"/>
-    <cellStyle name="20 % - Akzent3 2 4 3" xfId="839"/>
-    <cellStyle name="20 % - Akzent3 2 5" xfId="95"/>
-    <cellStyle name="20 % - Akzent3 2 5 2" xfId="96"/>
-    <cellStyle name="20 % - Akzent3 2 5 2 2" xfId="842"/>
-    <cellStyle name="20 % - Akzent3 2 5 3" xfId="841"/>
-    <cellStyle name="20 % - Akzent4 2" xfId="97"/>
-    <cellStyle name="20 % - Akzent4 2 2" xfId="98"/>
-    <cellStyle name="20 % - Akzent4 2 2 2" xfId="99"/>
-    <cellStyle name="20 % - Akzent4 2 2 2 2" xfId="100"/>
-    <cellStyle name="20 % - Akzent4 2 2 2 2 2" xfId="101"/>
-    <cellStyle name="20 % - Akzent4 2 2 2 2 2 2" xfId="846"/>
-    <cellStyle name="20 % - Akzent4 2 2 2 2 3" xfId="845"/>
-    <cellStyle name="20 % - Akzent4 2 2 2 3" xfId="102"/>
-    <cellStyle name="20 % - Akzent4 2 2 2 3 2" xfId="847"/>
-    <cellStyle name="20 % - Akzent4 2 2 2 4" xfId="844"/>
-    <cellStyle name="20 % - Akzent4 2 2 3" xfId="103"/>
-    <cellStyle name="20 % - Akzent4 2 2 3 2" xfId="104"/>
-    <cellStyle name="20 % - Akzent4 2 2 3 2 2" xfId="849"/>
-    <cellStyle name="20 % - Akzent4 2 2 3 3" xfId="848"/>
-    <cellStyle name="20 % - Akzent4 2 2 4" xfId="105"/>
-    <cellStyle name="20 % - Akzent4 2 2 4 2" xfId="850"/>
-    <cellStyle name="20 % - Akzent4 2 2 5" xfId="843"/>
-    <cellStyle name="20 % - Akzent4 2 3" xfId="106"/>
-    <cellStyle name="20 % - Akzent4 2 3 2" xfId="107"/>
-    <cellStyle name="20 % - Akzent4 2 3 2 2" xfId="108"/>
-    <cellStyle name="20 % - Akzent4 2 3 2 2 2" xfId="853"/>
-    <cellStyle name="20 % - Akzent4 2 3 2 3" xfId="852"/>
-    <cellStyle name="20 % - Akzent4 2 3 3" xfId="109"/>
-    <cellStyle name="20 % - Akzent4 2 3 3 2" xfId="854"/>
-    <cellStyle name="20 % - Akzent4 2 3 4" xfId="851"/>
-    <cellStyle name="20 % - Akzent4 2 4" xfId="110"/>
-    <cellStyle name="20 % - Akzent4 2 4 2" xfId="111"/>
-    <cellStyle name="20 % - Akzent4 2 4 2 2" xfId="856"/>
-    <cellStyle name="20 % - Akzent4 2 4 3" xfId="855"/>
-    <cellStyle name="20 % - Akzent4 2 5" xfId="112"/>
-    <cellStyle name="20 % - Akzent4 2 5 2" xfId="113"/>
-    <cellStyle name="20 % - Akzent4 2 5 2 2" xfId="858"/>
-    <cellStyle name="20 % - Akzent4 2 5 3" xfId="857"/>
-    <cellStyle name="20 % - Akzent5 2" xfId="114"/>
-    <cellStyle name="20 % - Akzent5 2 2" xfId="115"/>
-    <cellStyle name="20 % - Akzent5 2 2 2" xfId="116"/>
-    <cellStyle name="20 % - Akzent5 2 2 2 2" xfId="117"/>
-    <cellStyle name="20 % - Akzent5 2 2 2 2 2" xfId="118"/>
-    <cellStyle name="20 % - Akzent5 2 2 2 2 2 2" xfId="862"/>
-    <cellStyle name="20 % - Akzent5 2 2 2 2 3" xfId="861"/>
-    <cellStyle name="20 % - Akzent5 2 2 2 3" xfId="119"/>
-    <cellStyle name="20 % - Akzent5 2 2 2 3 2" xfId="863"/>
-    <cellStyle name="20 % - Akzent5 2 2 2 4" xfId="860"/>
-    <cellStyle name="20 % - Akzent5 2 2 3" xfId="120"/>
-    <cellStyle name="20 % - Akzent5 2 2 3 2" xfId="121"/>
-    <cellStyle name="20 % - Akzent5 2 2 3 2 2" xfId="865"/>
-    <cellStyle name="20 % - Akzent5 2 2 3 3" xfId="864"/>
-    <cellStyle name="20 % - Akzent5 2 2 4" xfId="122"/>
-    <cellStyle name="20 % - Akzent5 2 2 4 2" xfId="866"/>
-    <cellStyle name="20 % - Akzent5 2 2 5" xfId="859"/>
-    <cellStyle name="20 % - Akzent5 2 3" xfId="123"/>
-    <cellStyle name="20 % - Akzent5 2 3 2" xfId="124"/>
-    <cellStyle name="20 % - Akzent5 2 3 2 2" xfId="125"/>
-    <cellStyle name="20 % - Akzent5 2 3 2 2 2" xfId="869"/>
-    <cellStyle name="20 % - Akzent5 2 3 2 3" xfId="868"/>
-    <cellStyle name="20 % - Akzent5 2 3 3" xfId="126"/>
-    <cellStyle name="20 % - Akzent5 2 3 3 2" xfId="870"/>
-    <cellStyle name="20 % - Akzent5 2 3 4" xfId="867"/>
-    <cellStyle name="20 % - Akzent5 2 4" xfId="127"/>
-    <cellStyle name="20 % - Akzent5 2 4 2" xfId="128"/>
-    <cellStyle name="20 % - Akzent5 2 4 2 2" xfId="872"/>
-    <cellStyle name="20 % - Akzent5 2 4 3" xfId="871"/>
-    <cellStyle name="20 % - Akzent5 2 5" xfId="129"/>
-    <cellStyle name="20 % - Akzent5 2 5 2" xfId="130"/>
-    <cellStyle name="20 % - Akzent5 2 5 2 2" xfId="874"/>
-    <cellStyle name="20 % - Akzent5 2 5 3" xfId="873"/>
-    <cellStyle name="20 % - Akzent6 2" xfId="131"/>
-    <cellStyle name="20 % - Akzent6 2 2" xfId="132"/>
-    <cellStyle name="20 % - Akzent6 2 2 2" xfId="133"/>
-    <cellStyle name="20 % - Akzent6 2 2 2 2" xfId="134"/>
-    <cellStyle name="20 % - Akzent6 2 2 2 2 2" xfId="135"/>
-    <cellStyle name="20 % - Akzent6 2 2 2 2 2 2" xfId="878"/>
-    <cellStyle name="20 % - Akzent6 2 2 2 2 3" xfId="877"/>
-    <cellStyle name="20 % - Akzent6 2 2 2 3" xfId="136"/>
-    <cellStyle name="20 % - Akzent6 2 2 2 3 2" xfId="879"/>
-    <cellStyle name="20 % - Akzent6 2 2 2 4" xfId="876"/>
-    <cellStyle name="20 % - Akzent6 2 2 3" xfId="137"/>
-    <cellStyle name="20 % - Akzent6 2 2 3 2" xfId="138"/>
-    <cellStyle name="20 % - Akzent6 2 2 3 2 2" xfId="881"/>
-    <cellStyle name="20 % - Akzent6 2 2 3 3" xfId="880"/>
-    <cellStyle name="20 % - Akzent6 2 2 4" xfId="139"/>
-    <cellStyle name="20 % - Akzent6 2 2 4 2" xfId="882"/>
-    <cellStyle name="20 % - Akzent6 2 2 5" xfId="875"/>
-    <cellStyle name="20 % - Akzent6 2 3" xfId="140"/>
-    <cellStyle name="20 % - Akzent6 2 3 2" xfId="141"/>
-    <cellStyle name="20 % - Akzent6 2 3 2 2" xfId="142"/>
-    <cellStyle name="20 % - Akzent6 2 3 2 2 2" xfId="885"/>
-    <cellStyle name="20 % - Akzent6 2 3 2 3" xfId="884"/>
-    <cellStyle name="20 % - Akzent6 2 3 3" xfId="143"/>
-    <cellStyle name="20 % - Akzent6 2 3 3 2" xfId="886"/>
-    <cellStyle name="20 % - Akzent6 2 3 4" xfId="883"/>
-    <cellStyle name="20 % - Akzent6 2 4" xfId="144"/>
-    <cellStyle name="20 % - Akzent6 2 4 2" xfId="145"/>
-    <cellStyle name="20 % - Akzent6 2 4 2 2" xfId="888"/>
-    <cellStyle name="20 % - Akzent6 2 4 3" xfId="887"/>
-    <cellStyle name="20 % - Akzent6 2 5" xfId="146"/>
-    <cellStyle name="20 % - Akzent6 2 5 2" xfId="147"/>
-    <cellStyle name="20 % - Akzent6 2 5 2 2" xfId="890"/>
-    <cellStyle name="20 % - Akzent6 2 5 3" xfId="889"/>
-    <cellStyle name="20% - Accent1" xfId="148"/>
-    <cellStyle name="20% - Accent1 2" xfId="149"/>
-    <cellStyle name="20% - Accent1 3" xfId="150"/>
-    <cellStyle name="20% - Accent2" xfId="151"/>
-    <cellStyle name="20% - Accent2 2" xfId="152"/>
-    <cellStyle name="20% - Accent2 3" xfId="153"/>
-    <cellStyle name="20% - Accent3" xfId="154"/>
-    <cellStyle name="20% - Accent3 2" xfId="155"/>
-    <cellStyle name="20% - Accent3 3" xfId="156"/>
-    <cellStyle name="20% - Accent4" xfId="157"/>
-    <cellStyle name="20% - Accent4 2" xfId="158"/>
-    <cellStyle name="20% - Accent4 3" xfId="159"/>
-    <cellStyle name="20% - Accent5" xfId="160"/>
-    <cellStyle name="20% - Accent5 2" xfId="161"/>
-    <cellStyle name="20% - Accent5 3" xfId="162"/>
-    <cellStyle name="20% - Accent6" xfId="163"/>
-    <cellStyle name="20% - Accent6 2" xfId="164"/>
-    <cellStyle name="20% - Accent6 3" xfId="165"/>
-    <cellStyle name="20% - Akzent1" xfId="1"/>
-    <cellStyle name="20% - Akzent2" xfId="2"/>
-    <cellStyle name="20% - Akzent3" xfId="3"/>
-    <cellStyle name="20% - Akzent4" xfId="4"/>
-    <cellStyle name="20% - Akzent5" xfId="5"/>
-    <cellStyle name="20% - Akzent6" xfId="6"/>
-    <cellStyle name="40 % - Akzent1 2" xfId="166"/>
-    <cellStyle name="40 % - Akzent1 2 2" xfId="167"/>
-    <cellStyle name="40 % - Akzent1 2 2 2" xfId="168"/>
-    <cellStyle name="40 % - Akzent1 2 2 2 2" xfId="169"/>
-    <cellStyle name="40 % - Akzent1 2 2 2 2 2" xfId="170"/>
-    <cellStyle name="40 % - Akzent1 2 2 2 2 2 2" xfId="894"/>
-    <cellStyle name="40 % - Akzent1 2 2 2 2 3" xfId="893"/>
-    <cellStyle name="40 % - Akzent1 2 2 2 3" xfId="171"/>
-    <cellStyle name="40 % - Akzent1 2 2 2 3 2" xfId="895"/>
-    <cellStyle name="40 % - Akzent1 2 2 2 4" xfId="892"/>
-    <cellStyle name="40 % - Akzent1 2 2 3" xfId="172"/>
-    <cellStyle name="40 % - Akzent1 2 2 3 2" xfId="173"/>
-    <cellStyle name="40 % - Akzent1 2 2 3 2 2" xfId="897"/>
-    <cellStyle name="40 % - Akzent1 2 2 3 3" xfId="896"/>
-    <cellStyle name="40 % - Akzent1 2 2 4" xfId="174"/>
-    <cellStyle name="40 % - Akzent1 2 2 4 2" xfId="898"/>
-    <cellStyle name="40 % - Akzent1 2 2 5" xfId="891"/>
-    <cellStyle name="40 % - Akzent1 2 3" xfId="175"/>
-    <cellStyle name="40 % - Akzent1 2 3 2" xfId="176"/>
-    <cellStyle name="40 % - Akzent1 2 3 2 2" xfId="177"/>
-    <cellStyle name="40 % - Akzent1 2 3 2 2 2" xfId="901"/>
-    <cellStyle name="40 % - Akzent1 2 3 2 3" xfId="900"/>
-    <cellStyle name="40 % - Akzent1 2 3 3" xfId="178"/>
-    <cellStyle name="40 % - Akzent1 2 3 3 2" xfId="902"/>
-    <cellStyle name="40 % - Akzent1 2 3 4" xfId="899"/>
-    <cellStyle name="40 % - Akzent1 2 4" xfId="179"/>
-    <cellStyle name="40 % - Akzent1 2 4 2" xfId="180"/>
-    <cellStyle name="40 % - Akzent1 2 4 2 2" xfId="904"/>
-    <cellStyle name="40 % - Akzent1 2 4 3" xfId="903"/>
-    <cellStyle name="40 % - Akzent1 2 5" xfId="181"/>
-    <cellStyle name="40 % - Akzent1 2 5 2" xfId="182"/>
-    <cellStyle name="40 % - Akzent1 2 5 2 2" xfId="906"/>
-    <cellStyle name="40 % - Akzent1 2 5 3" xfId="905"/>
-    <cellStyle name="40 % - Akzent2 2" xfId="183"/>
-    <cellStyle name="40 % - Akzent2 2 2" xfId="184"/>
-    <cellStyle name="40 % - Akzent2 2 2 2" xfId="185"/>
-    <cellStyle name="40 % - Akzent2 2 2 2 2" xfId="186"/>
-    <cellStyle name="40 % - Akzent2 2 2 2 2 2" xfId="187"/>
-    <cellStyle name="40 % - Akzent2 2 2 2 2 2 2" xfId="910"/>
-    <cellStyle name="40 % - Akzent2 2 2 2 2 3" xfId="909"/>
-    <cellStyle name="40 % - Akzent2 2 2 2 3" xfId="188"/>
-    <cellStyle name="40 % - Akzent2 2 2 2 3 2" xfId="911"/>
-    <cellStyle name="40 % - Akzent2 2 2 2 4" xfId="908"/>
-    <cellStyle name="40 % - Akzent2 2 2 3" xfId="189"/>
-    <cellStyle name="40 % - Akzent2 2 2 3 2" xfId="190"/>
-    <cellStyle name="40 % - Akzent2 2 2 3 2 2" xfId="913"/>
-    <cellStyle name="40 % - Akzent2 2 2 3 3" xfId="912"/>
-    <cellStyle name="40 % - Akzent2 2 2 4" xfId="191"/>
-    <cellStyle name="40 % - Akzent2 2 2 4 2" xfId="914"/>
-    <cellStyle name="40 % - Akzent2 2 2 5" xfId="907"/>
-    <cellStyle name="40 % - Akzent2 2 3" xfId="192"/>
-    <cellStyle name="40 % - Akzent2 2 3 2" xfId="193"/>
-    <cellStyle name="40 % - Akzent2 2 3 2 2" xfId="194"/>
-    <cellStyle name="40 % - Akzent2 2 3 2 2 2" xfId="917"/>
-    <cellStyle name="40 % - Akzent2 2 3 2 3" xfId="916"/>
-    <cellStyle name="40 % - Akzent2 2 3 3" xfId="195"/>
-    <cellStyle name="40 % - Akzent2 2 3 3 2" xfId="918"/>
-    <cellStyle name="40 % - Akzent2 2 3 4" xfId="915"/>
-    <cellStyle name="40 % - Akzent2 2 4" xfId="196"/>
-    <cellStyle name="40 % - Akzent2 2 4 2" xfId="197"/>
-    <cellStyle name="40 % - Akzent2 2 4 2 2" xfId="920"/>
-    <cellStyle name="40 % - Akzent2 2 4 3" xfId="919"/>
-    <cellStyle name="40 % - Akzent2 2 5" xfId="198"/>
-    <cellStyle name="40 % - Akzent2 2 5 2" xfId="199"/>
-    <cellStyle name="40 % - Akzent2 2 5 2 2" xfId="922"/>
-    <cellStyle name="40 % - Akzent2 2 5 3" xfId="921"/>
-    <cellStyle name="40 % - Akzent3 2" xfId="200"/>
-    <cellStyle name="40 % - Akzent3 2 2" xfId="201"/>
-    <cellStyle name="40 % - Akzent3 2 2 2" xfId="202"/>
-    <cellStyle name="40 % - Akzent3 2 2 2 2" xfId="203"/>
-    <cellStyle name="40 % - Akzent3 2 2 2 2 2" xfId="204"/>
-    <cellStyle name="40 % - Akzent3 2 2 2 2 2 2" xfId="926"/>
-    <cellStyle name="40 % - Akzent3 2 2 2 2 3" xfId="925"/>
-    <cellStyle name="40 % - Akzent3 2 2 2 3" xfId="205"/>
-    <cellStyle name="40 % - Akzent3 2 2 2 3 2" xfId="927"/>
-    <cellStyle name="40 % - Akzent3 2 2 2 4" xfId="924"/>
-    <cellStyle name="40 % - Akzent3 2 2 3" xfId="206"/>
-    <cellStyle name="40 % - Akzent3 2 2 3 2" xfId="207"/>
-    <cellStyle name="40 % - Akzent3 2 2 3 2 2" xfId="929"/>
-    <cellStyle name="40 % - Akzent3 2 2 3 3" xfId="928"/>
-    <cellStyle name="40 % - Akzent3 2 2 4" xfId="208"/>
-    <cellStyle name="40 % - Akzent3 2 2 4 2" xfId="930"/>
-    <cellStyle name="40 % - Akzent3 2 2 5" xfId="923"/>
-    <cellStyle name="40 % - Akzent3 2 3" xfId="209"/>
-    <cellStyle name="40 % - Akzent3 2 3 2" xfId="210"/>
-    <cellStyle name="40 % - Akzent3 2 3 2 2" xfId="211"/>
-    <cellStyle name="40 % - Akzent3 2 3 2 2 2" xfId="933"/>
-    <cellStyle name="40 % - Akzent3 2 3 2 3" xfId="932"/>
-    <cellStyle name="40 % - Akzent3 2 3 3" xfId="212"/>
-    <cellStyle name="40 % - Akzent3 2 3 3 2" xfId="934"/>
-    <cellStyle name="40 % - Akzent3 2 3 4" xfId="931"/>
-    <cellStyle name="40 % - Akzent3 2 4" xfId="213"/>
-    <cellStyle name="40 % - Akzent3 2 4 2" xfId="214"/>
-    <cellStyle name="40 % - Akzent3 2 4 2 2" xfId="936"/>
-    <cellStyle name="40 % - Akzent3 2 4 3" xfId="935"/>
-    <cellStyle name="40 % - Akzent3 2 5" xfId="215"/>
-    <cellStyle name="40 % - Akzent3 2 5 2" xfId="216"/>
-    <cellStyle name="40 % - Akzent3 2 5 2 2" xfId="938"/>
-    <cellStyle name="40 % - Akzent3 2 5 3" xfId="937"/>
-    <cellStyle name="40 % - Akzent4 2" xfId="217"/>
-    <cellStyle name="40 % - Akzent4 2 2" xfId="218"/>
-    <cellStyle name="40 % - Akzent4 2 2 2" xfId="219"/>
-    <cellStyle name="40 % - Akzent4 2 2 2 2" xfId="220"/>
-    <cellStyle name="40 % - Akzent4 2 2 2 2 2" xfId="221"/>
-    <cellStyle name="40 % - Akzent4 2 2 2 2 2 2" xfId="942"/>
-    <cellStyle name="40 % - Akzent4 2 2 2 2 3" xfId="941"/>
-    <cellStyle name="40 % - Akzent4 2 2 2 3" xfId="222"/>
-    <cellStyle name="40 % - Akzent4 2 2 2 3 2" xfId="943"/>
-    <cellStyle name="40 % - Akzent4 2 2 2 4" xfId="940"/>
-    <cellStyle name="40 % - Akzent4 2 2 3" xfId="223"/>
-    <cellStyle name="40 % - Akzent4 2 2 3 2" xfId="224"/>
-    <cellStyle name="40 % - Akzent4 2 2 3 2 2" xfId="945"/>
-    <cellStyle name="40 % - Akzent4 2 2 3 3" xfId="944"/>
-    <cellStyle name="40 % - Akzent4 2 2 4" xfId="225"/>
-    <cellStyle name="40 % - Akzent4 2 2 4 2" xfId="946"/>
-    <cellStyle name="40 % - Akzent4 2 2 5" xfId="939"/>
-    <cellStyle name="40 % - Akzent4 2 3" xfId="226"/>
-    <cellStyle name="40 % - Akzent4 2 3 2" xfId="227"/>
-    <cellStyle name="40 % - Akzent4 2 3 2 2" xfId="228"/>
-    <cellStyle name="40 % - Akzent4 2 3 2 2 2" xfId="949"/>
-    <cellStyle name="40 % - Akzent4 2 3 2 3" xfId="948"/>
-    <cellStyle name="40 % - Akzent4 2 3 3" xfId="229"/>
-    <cellStyle name="40 % - Akzent4 2 3 3 2" xfId="950"/>
-    <cellStyle name="40 % - Akzent4 2 3 4" xfId="947"/>
-    <cellStyle name="40 % - Akzent4 2 4" xfId="230"/>
-    <cellStyle name="40 % - Akzent4 2 4 2" xfId="231"/>
-    <cellStyle name="40 % - Akzent4 2 4 2 2" xfId="952"/>
-    <cellStyle name="40 % - Akzent4 2 4 3" xfId="951"/>
-    <cellStyle name="40 % - Akzent4 2 5" xfId="232"/>
-    <cellStyle name="40 % - Akzent4 2 5 2" xfId="233"/>
-    <cellStyle name="40 % - Akzent4 2 5 2 2" xfId="954"/>
-    <cellStyle name="40 % - Akzent4 2 5 3" xfId="953"/>
-    <cellStyle name="40 % - Akzent5 2" xfId="234"/>
-    <cellStyle name="40 % - Akzent5 2 2" xfId="235"/>
-    <cellStyle name="40 % - Akzent5 2 2 2" xfId="236"/>
-    <cellStyle name="40 % - Akzent5 2 2 2 2" xfId="237"/>
-    <cellStyle name="40 % - Akzent5 2 2 2 2 2" xfId="238"/>
-    <cellStyle name="40 % - Akzent5 2 2 2 2 2 2" xfId="958"/>
-    <cellStyle name="40 % - Akzent5 2 2 2 2 3" xfId="957"/>
-    <cellStyle name="40 % - Akzent5 2 2 2 3" xfId="239"/>
-    <cellStyle name="40 % - Akzent5 2 2 2 3 2" xfId="959"/>
-    <cellStyle name="40 % - Akzent5 2 2 2 4" xfId="956"/>
-    <cellStyle name="40 % - Akzent5 2 2 3" xfId="240"/>
-    <cellStyle name="40 % - Akzent5 2 2 3 2" xfId="241"/>
-    <cellStyle name="40 % - Akzent5 2 2 3 2 2" xfId="961"/>
-    <cellStyle name="40 % - Akzent5 2 2 3 3" xfId="960"/>
-    <cellStyle name="40 % - Akzent5 2 2 4" xfId="242"/>
-    <cellStyle name="40 % - Akzent5 2 2 4 2" xfId="962"/>
-    <cellStyle name="40 % - Akzent5 2 2 5" xfId="955"/>
-    <cellStyle name="40 % - Akzent5 2 3" xfId="243"/>
-    <cellStyle name="40 % - Akzent5 2 3 2" xfId="244"/>
-    <cellStyle name="40 % - Akzent5 2 3 2 2" xfId="245"/>
-    <cellStyle name="40 % - Akzent5 2 3 2 2 2" xfId="965"/>
-    <cellStyle name="40 % - Akzent5 2 3 2 3" xfId="964"/>
-    <cellStyle name="40 % - Akzent5 2 3 3" xfId="246"/>
-    <cellStyle name="40 % - Akzent5 2 3 3 2" xfId="966"/>
-    <cellStyle name="40 % - Akzent5 2 3 4" xfId="963"/>
-    <cellStyle name="40 % - Akzent5 2 4" xfId="247"/>
-    <cellStyle name="40 % - Akzent5 2 4 2" xfId="248"/>
-    <cellStyle name="40 % - Akzent5 2 4 2 2" xfId="968"/>
-    <cellStyle name="40 % - Akzent5 2 4 3" xfId="967"/>
-    <cellStyle name="40 % - Akzent5 2 5" xfId="249"/>
-    <cellStyle name="40 % - Akzent5 2 5 2" xfId="250"/>
-    <cellStyle name="40 % - Akzent5 2 5 2 2" xfId="970"/>
-    <cellStyle name="40 % - Akzent5 2 5 3" xfId="969"/>
-    <cellStyle name="40 % - Akzent6 2" xfId="251"/>
-    <cellStyle name="40 % - Akzent6 2 2" xfId="252"/>
-    <cellStyle name="40 % - Akzent6 2 2 2" xfId="253"/>
-    <cellStyle name="40 % - Akzent6 2 2 2 2" xfId="254"/>
-    <cellStyle name="40 % - Akzent6 2 2 2 2 2" xfId="255"/>
-    <cellStyle name="40 % - Akzent6 2 2 2 2 2 2" xfId="974"/>
-    <cellStyle name="40 % - Akzent6 2 2 2 2 3" xfId="973"/>
-    <cellStyle name="40 % - Akzent6 2 2 2 3" xfId="256"/>
-    <cellStyle name="40 % - Akzent6 2 2 2 3 2" xfId="975"/>
-    <cellStyle name="40 % - Akzent6 2 2 2 4" xfId="972"/>
-    <cellStyle name="40 % - Akzent6 2 2 3" xfId="257"/>
-    <cellStyle name="40 % - Akzent6 2 2 3 2" xfId="258"/>
-    <cellStyle name="40 % - Akzent6 2 2 3 2 2" xfId="977"/>
-    <cellStyle name="40 % - Akzent6 2 2 3 3" xfId="976"/>
-    <cellStyle name="40 % - Akzent6 2 2 4" xfId="259"/>
-    <cellStyle name="40 % - Akzent6 2 2 4 2" xfId="978"/>
-    <cellStyle name="40 % - Akzent6 2 2 5" xfId="971"/>
-    <cellStyle name="40 % - Akzent6 2 3" xfId="260"/>
-    <cellStyle name="40 % - Akzent6 2 3 2" xfId="261"/>
-    <cellStyle name="40 % - Akzent6 2 3 2 2" xfId="262"/>
-    <cellStyle name="40 % - Akzent6 2 3 2 2 2" xfId="981"/>
-    <cellStyle name="40 % - Akzent6 2 3 2 3" xfId="980"/>
-    <cellStyle name="40 % - Akzent6 2 3 3" xfId="263"/>
-    <cellStyle name="40 % - Akzent6 2 3 3 2" xfId="982"/>
-    <cellStyle name="40 % - Akzent6 2 3 4" xfId="979"/>
-    <cellStyle name="40 % - Akzent6 2 4" xfId="264"/>
-    <cellStyle name="40 % - Akzent6 2 4 2" xfId="265"/>
-    <cellStyle name="40 % - Akzent6 2 4 2 2" xfId="984"/>
-    <cellStyle name="40 % - Akzent6 2 4 3" xfId="983"/>
-    <cellStyle name="40 % - Akzent6 2 5" xfId="266"/>
-    <cellStyle name="40 % - Akzent6 2 5 2" xfId="267"/>
-    <cellStyle name="40 % - Akzent6 2 5 2 2" xfId="986"/>
-    <cellStyle name="40 % - Akzent6 2 5 3" xfId="985"/>
-    <cellStyle name="40% - Accent1" xfId="268"/>
-    <cellStyle name="40% - Accent1 2" xfId="269"/>
-    <cellStyle name="40% - Accent1 3" xfId="270"/>
-    <cellStyle name="40% - Accent2" xfId="271"/>
-    <cellStyle name="40% - Accent2 2" xfId="272"/>
-    <cellStyle name="40% - Accent2 3" xfId="273"/>
-    <cellStyle name="40% - Accent3" xfId="274"/>
-    <cellStyle name="40% - Accent3 2" xfId="275"/>
-    <cellStyle name="40% - Accent3 3" xfId="276"/>
-    <cellStyle name="40% - Accent4" xfId="277"/>
-    <cellStyle name="40% - Accent4 2" xfId="278"/>
-    <cellStyle name="40% - Accent4 3" xfId="279"/>
-    <cellStyle name="40% - Accent5" xfId="280"/>
-    <cellStyle name="40% - Accent5 2" xfId="281"/>
-    <cellStyle name="40% - Accent5 3" xfId="282"/>
-    <cellStyle name="40% - Accent6" xfId="283"/>
-    <cellStyle name="40% - Accent6 2" xfId="284"/>
-    <cellStyle name="40% - Accent6 3" xfId="285"/>
-    <cellStyle name="40% - Akzent1" xfId="7"/>
-    <cellStyle name="40% - Akzent2" xfId="8"/>
-    <cellStyle name="40% - Akzent3" xfId="9"/>
-    <cellStyle name="40% - Akzent4" xfId="10"/>
-    <cellStyle name="40% - Akzent5" xfId="11"/>
-    <cellStyle name="40% - Akzent6" xfId="12"/>
-    <cellStyle name="60 % - Akzent1 2" xfId="286"/>
-    <cellStyle name="60 % - Akzent1 2 2" xfId="287"/>
-    <cellStyle name="60 % - Akzent2 2" xfId="288"/>
-    <cellStyle name="60 % - Akzent2 2 2" xfId="289"/>
-    <cellStyle name="60 % - Akzent3 2" xfId="290"/>
-    <cellStyle name="60 % - Akzent3 2 2" xfId="291"/>
-    <cellStyle name="60 % - Akzent4 2" xfId="292"/>
-    <cellStyle name="60 % - Akzent4 2 2" xfId="293"/>
-    <cellStyle name="60 % - Akzent5 2" xfId="294"/>
-    <cellStyle name="60 % - Akzent5 2 2" xfId="295"/>
-    <cellStyle name="60 % - Akzent6 2" xfId="296"/>
-    <cellStyle name="60 % - Akzent6 2 2" xfId="297"/>
-    <cellStyle name="60% - Accent1" xfId="298"/>
-    <cellStyle name="60% - Accent1 2" xfId="299"/>
-    <cellStyle name="60% - Accent1 3" xfId="300"/>
-    <cellStyle name="60% - Accent2" xfId="301"/>
-    <cellStyle name="60% - Accent2 2" xfId="302"/>
-    <cellStyle name="60% - Accent2 3" xfId="303"/>
-    <cellStyle name="60% - Accent3" xfId="304"/>
-    <cellStyle name="60% - Accent3 2" xfId="305"/>
-    <cellStyle name="60% - Accent3 3" xfId="306"/>
-    <cellStyle name="60% - Accent4" xfId="307"/>
-    <cellStyle name="60% - Accent4 2" xfId="308"/>
-    <cellStyle name="60% - Accent4 3" xfId="309"/>
-    <cellStyle name="60% - Accent5" xfId="310"/>
-    <cellStyle name="60% - Accent5 2" xfId="311"/>
-    <cellStyle name="60% - Accent5 3" xfId="312"/>
-    <cellStyle name="60% - Accent6" xfId="313"/>
-    <cellStyle name="60% - Accent6 2" xfId="314"/>
-    <cellStyle name="60% - Accent6 3" xfId="315"/>
-    <cellStyle name="60% - Akzent1" xfId="13"/>
-    <cellStyle name="60% - Akzent2" xfId="14"/>
-    <cellStyle name="60% - Akzent3" xfId="15"/>
-    <cellStyle name="60% - Akzent4" xfId="16"/>
-    <cellStyle name="60% - Akzent5" xfId="17"/>
-    <cellStyle name="60% - Akzent6" xfId="18"/>
-    <cellStyle name="Accent1" xfId="316"/>
-    <cellStyle name="Accent1 2" xfId="317"/>
-    <cellStyle name="Accent1 3" xfId="318"/>
-    <cellStyle name="Accent2" xfId="319"/>
-    <cellStyle name="Accent2 2" xfId="320"/>
-    <cellStyle name="Accent2 3" xfId="321"/>
-    <cellStyle name="Accent3" xfId="322"/>
-    <cellStyle name="Accent3 2" xfId="323"/>
-    <cellStyle name="Accent3 3" xfId="324"/>
-    <cellStyle name="Accent4" xfId="325"/>
-    <cellStyle name="Accent4 2" xfId="326"/>
-    <cellStyle name="Accent4 3" xfId="327"/>
-    <cellStyle name="Accent5" xfId="328"/>
-    <cellStyle name="Accent5 2" xfId="329"/>
-    <cellStyle name="Accent5 3" xfId="330"/>
-    <cellStyle name="Accent6" xfId="331"/>
-    <cellStyle name="Accent6 2" xfId="332"/>
-    <cellStyle name="Accent6 3" xfId="333"/>
-    <cellStyle name="Akzent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent1 2" xfId="334"/>
-    <cellStyle name="Akzent1 3" xfId="335"/>
-    <cellStyle name="Akzent1 4" xfId="336"/>
-    <cellStyle name="Akzent1 5" xfId="337"/>
-    <cellStyle name="Akzent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent2 2" xfId="338"/>
-    <cellStyle name="Akzent2 3" xfId="339"/>
-    <cellStyle name="Akzent2 4" xfId="340"/>
-    <cellStyle name="Akzent2 5" xfId="341"/>
-    <cellStyle name="Akzent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent3 2" xfId="342"/>
-    <cellStyle name="Akzent3 3" xfId="343"/>
-    <cellStyle name="Akzent3 4" xfId="344"/>
-    <cellStyle name="Akzent3 5" xfId="345"/>
-    <cellStyle name="Akzent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent4 2" xfId="346"/>
-    <cellStyle name="Akzent4 3" xfId="347"/>
-    <cellStyle name="Akzent4 4" xfId="348"/>
-    <cellStyle name="Akzent4 5" xfId="349"/>
-    <cellStyle name="Akzent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent5 2" xfId="350"/>
-    <cellStyle name="Akzent5 3" xfId="351"/>
-    <cellStyle name="Akzent5 4" xfId="352"/>
-    <cellStyle name="Akzent5 5" xfId="353"/>
-    <cellStyle name="Akzent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Akzent6 2" xfId="354"/>
-    <cellStyle name="Akzent6 3" xfId="355"/>
-    <cellStyle name="Akzent6 4" xfId="356"/>
-    <cellStyle name="Akzent6 5" xfId="357"/>
-    <cellStyle name="annee semestre" xfId="358"/>
-    <cellStyle name="Ausgabe" xfId="25" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Ausgabe 2" xfId="359"/>
-    <cellStyle name="Ausgabe 3" xfId="360"/>
-    <cellStyle name="Ausgabe 4" xfId="361"/>
-    <cellStyle name="Ausgabe 5" xfId="362"/>
-    <cellStyle name="Bad" xfId="363"/>
-    <cellStyle name="Bad 2" xfId="364"/>
-    <cellStyle name="Bad 3" xfId="365"/>
-    <cellStyle name="Berechnung" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Berechnung 2" xfId="366"/>
-    <cellStyle name="Berechnung 3" xfId="367"/>
-    <cellStyle name="Berechnung 4" xfId="368"/>
-    <cellStyle name="Berechnung 5" xfId="369"/>
-    <cellStyle name="C01_Main head" xfId="370"/>
-    <cellStyle name="C02_Column heads" xfId="371"/>
-    <cellStyle name="C03_Sub head bold" xfId="372"/>
-    <cellStyle name="C03a_Sub head" xfId="373"/>
-    <cellStyle name="C04_Total text white bold" xfId="374"/>
-    <cellStyle name="C04a_Total text black with rule" xfId="375"/>
-    <cellStyle name="C05_Main text" xfId="376"/>
-    <cellStyle name="C06_Figs" xfId="377"/>
-    <cellStyle name="C07_Figs 1 dec percent" xfId="378"/>
-    <cellStyle name="C08_Figs 1 decimal" xfId="379"/>
-    <cellStyle name="C09_Notes" xfId="380"/>
-    <cellStyle name="Calculation" xfId="381"/>
-    <cellStyle name="Calculation 2" xfId="382"/>
-    <cellStyle name="Calculation 3" xfId="383"/>
-    <cellStyle name="Check Cell" xfId="384"/>
-    <cellStyle name="Check Cell 2" xfId="385"/>
-    <cellStyle name="Check Cell 3" xfId="386"/>
-    <cellStyle name="clsAltData" xfId="387"/>
-    <cellStyle name="clsColumnHeader" xfId="388"/>
-    <cellStyle name="clsData" xfId="389"/>
-    <cellStyle name="clsDefault" xfId="390"/>
-    <cellStyle name="clsRowHeader" xfId="391"/>
-    <cellStyle name="Comma [0]" xfId="392"/>
-    <cellStyle name="Comma [0] 10" xfId="393"/>
-    <cellStyle name="Comma [0] 11" xfId="394"/>
-    <cellStyle name="Comma [0] 11 2" xfId="395"/>
-    <cellStyle name="Comma [0] 12" xfId="396"/>
-    <cellStyle name="Comma [0] 13" xfId="397"/>
-    <cellStyle name="Comma [0] 2" xfId="398"/>
-    <cellStyle name="Comma [0] 2 2" xfId="399"/>
-    <cellStyle name="Comma [0] 2 2 2" xfId="400"/>
-    <cellStyle name="Comma [0] 3" xfId="401"/>
-    <cellStyle name="Comma [0] 3 2" xfId="402"/>
-    <cellStyle name="Comma [0] 4" xfId="403"/>
-    <cellStyle name="Comma [0] 4 2" xfId="404"/>
-    <cellStyle name="Comma [0] 5" xfId="405"/>
-    <cellStyle name="Comma [0] 5 2" xfId="406"/>
-    <cellStyle name="Comma [0] 5 3" xfId="407"/>
-    <cellStyle name="Comma [0] 5 4" xfId="408"/>
-    <cellStyle name="Comma [0] 6" xfId="409"/>
-    <cellStyle name="Comma [0] 6 2" xfId="410"/>
-    <cellStyle name="Comma [0] 6 3" xfId="411"/>
-    <cellStyle name="Comma [0] 6 4" xfId="412"/>
-    <cellStyle name="Comma [0] 6 4 2" xfId="413"/>
-    <cellStyle name="Comma [0] 7" xfId="414"/>
-    <cellStyle name="Comma [0] 7 2" xfId="415"/>
-    <cellStyle name="Comma [0] 7 3" xfId="416"/>
-    <cellStyle name="Comma [0] 8" xfId="417"/>
-    <cellStyle name="Comma [0] 9" xfId="418"/>
-    <cellStyle name="Comma 2" xfId="419"/>
-    <cellStyle name="Comma 3 2" xfId="420"/>
-    <cellStyle name="Comma 3 2 2" xfId="421"/>
-    <cellStyle name="Comma 3 2 2 2" xfId="422"/>
-    <cellStyle name="Comma 3 2 2 2 2" xfId="423"/>
-    <cellStyle name="Comma 3 2 2 2 2 2" xfId="424"/>
-    <cellStyle name="Comma 3 2 2 2 2 2 2" xfId="991"/>
-    <cellStyle name="Comma 3 2 2 2 2 3" xfId="990"/>
-    <cellStyle name="Comma 3 2 2 2 3" xfId="425"/>
-    <cellStyle name="Comma 3 2 2 2 3 2" xfId="992"/>
-    <cellStyle name="Comma 3 2 2 2 4" xfId="989"/>
-    <cellStyle name="Comma 3 2 2 3" xfId="426"/>
-    <cellStyle name="Comma 3 2 2 3 2" xfId="427"/>
-    <cellStyle name="Comma 3 2 2 3 2 2" xfId="994"/>
-    <cellStyle name="Comma 3 2 2 3 3" xfId="993"/>
-    <cellStyle name="Comma 3 2 2 4" xfId="428"/>
-    <cellStyle name="Comma 3 2 2 4 2" xfId="995"/>
-    <cellStyle name="Comma 3 2 2 5" xfId="988"/>
-    <cellStyle name="Comma 3 2 3" xfId="429"/>
-    <cellStyle name="Comma 3 2 3 2" xfId="430"/>
-    <cellStyle name="Comma 3 2 3 2 2" xfId="431"/>
-    <cellStyle name="Comma 3 2 3 2 2 2" xfId="998"/>
-    <cellStyle name="Comma 3 2 3 2 3" xfId="997"/>
-    <cellStyle name="Comma 3 2 3 3" xfId="432"/>
-    <cellStyle name="Comma 3 2 3 3 2" xfId="999"/>
-    <cellStyle name="Comma 3 2 3 4" xfId="996"/>
-    <cellStyle name="Comma 3 2 4" xfId="433"/>
-    <cellStyle name="Comma 3 2 4 2" xfId="434"/>
-    <cellStyle name="Comma 3 2 4 2 2" xfId="1001"/>
-    <cellStyle name="Comma 3 2 4 3" xfId="1000"/>
-    <cellStyle name="Comma 3 2 5" xfId="435"/>
-    <cellStyle name="Comma 3 2 5 2" xfId="1002"/>
-    <cellStyle name="Comma 3 2 6" xfId="987"/>
-    <cellStyle name="Comma 5" xfId="436"/>
-    <cellStyle name="Comma_yearbook" xfId="437"/>
-    <cellStyle name="Currency [0]" xfId="438"/>
-    <cellStyle name="Currency [0] 10" xfId="439"/>
-    <cellStyle name="Currency [0] 11" xfId="440"/>
-    <cellStyle name="Currency [0] 11 2" xfId="441"/>
-    <cellStyle name="Currency [0] 12" xfId="442"/>
-    <cellStyle name="Currency [0] 13" xfId="443"/>
-    <cellStyle name="Currency [0] 2" xfId="444"/>
-    <cellStyle name="Currency [0] 2 2" xfId="445"/>
-    <cellStyle name="Currency [0] 2 2 2" xfId="446"/>
-    <cellStyle name="Currency [0] 3" xfId="447"/>
-    <cellStyle name="Currency [0] 3 2" xfId="448"/>
-    <cellStyle name="Currency [0] 4" xfId="449"/>
-    <cellStyle name="Currency [0] 4 2" xfId="450"/>
-    <cellStyle name="Currency [0] 5" xfId="451"/>
-    <cellStyle name="Currency [0] 5 2" xfId="452"/>
-    <cellStyle name="Currency [0] 5 3" xfId="453"/>
-    <cellStyle name="Currency [0] 5 4" xfId="454"/>
-    <cellStyle name="Currency [0] 6" xfId="455"/>
-    <cellStyle name="Currency [0] 6 2" xfId="456"/>
-    <cellStyle name="Currency [0] 6 3" xfId="457"/>
-    <cellStyle name="Currency [0] 6 4" xfId="458"/>
-    <cellStyle name="Currency [0] 6 4 2" xfId="459"/>
-    <cellStyle name="Currency [0] 7" xfId="460"/>
-    <cellStyle name="Currency [0] 7 2" xfId="461"/>
-    <cellStyle name="Currency [0] 7 3" xfId="462"/>
-    <cellStyle name="Currency [0] 8" xfId="463"/>
-    <cellStyle name="Currency [0] 9" xfId="464"/>
-    <cellStyle name="données" xfId="465"/>
-    <cellStyle name="donnéesbord" xfId="466"/>
-    <cellStyle name="Eingabe" xfId="27" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Eingabe 2" xfId="467"/>
-    <cellStyle name="Eingabe 3" xfId="468"/>
-    <cellStyle name="Eingabe 4" xfId="469"/>
-    <cellStyle name="Eingabe 5" xfId="470"/>
-    <cellStyle name="Ergebnis" xfId="28" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Ergebnis 2" xfId="471"/>
-    <cellStyle name="Ergebnis 3" xfId="472"/>
-    <cellStyle name="Ergebnis 4" xfId="473"/>
-    <cellStyle name="Ergebnis 5" xfId="474"/>
-    <cellStyle name="Erklärender Text" xfId="29" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text 2" xfId="475"/>
-    <cellStyle name="Erklärender Text 3" xfId="476"/>
-    <cellStyle name="Erklärender Text 4" xfId="477"/>
-    <cellStyle name="Erklärender Text 5" xfId="478"/>
-    <cellStyle name="Explanatory Text" xfId="479"/>
-    <cellStyle name="Explanatory Text 2" xfId="480"/>
-    <cellStyle name="Explanatory Text 3" xfId="481"/>
-    <cellStyle name="Good" xfId="482"/>
-    <cellStyle name="Good 2" xfId="483"/>
-    <cellStyle name="Good 3" xfId="484"/>
-    <cellStyle name="Gut" xfId="30" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Gut 2" xfId="485"/>
-    <cellStyle name="Gut 3" xfId="486"/>
-    <cellStyle name="Gut 4" xfId="487"/>
-    <cellStyle name="Gut 5" xfId="488"/>
-    <cellStyle name="H1" xfId="489"/>
-    <cellStyle name="H2" xfId="490"/>
-    <cellStyle name="H3" xfId="491"/>
-    <cellStyle name="H4" xfId="492"/>
-    <cellStyle name="H5" xfId="493"/>
-    <cellStyle name="Heading 1" xfId="494"/>
-    <cellStyle name="Heading 2" xfId="495"/>
-    <cellStyle name="Heading 3" xfId="496"/>
-    <cellStyle name="Heading 4" xfId="497"/>
-    <cellStyle name="Hyperlink 2" xfId="498"/>
-    <cellStyle name="Hyperlink 2 2" xfId="499"/>
-    <cellStyle name="Hyperlink 2 3" xfId="500"/>
-    <cellStyle name="Hyperlink 3" xfId="501"/>
-    <cellStyle name="Hyperlink 3 2" xfId="502"/>
-    <cellStyle name="Hyperlink 4" xfId="503"/>
-    <cellStyle name="Hyperlink 5" xfId="504"/>
-    <cellStyle name="Îáű÷íűé_ÂŰŐÎÄ" xfId="505"/>
-    <cellStyle name="Input" xfId="506"/>
-    <cellStyle name="Input 2" xfId="507"/>
-    <cellStyle name="Input 3" xfId="508"/>
-    <cellStyle name="Komma 2" xfId="509"/>
-    <cellStyle name="Komma 2 2" xfId="510"/>
-    <cellStyle name="Komma 3" xfId="511"/>
-    <cellStyle name="Linked Cell" xfId="512"/>
-    <cellStyle name="Linked Cell 2" xfId="513"/>
-    <cellStyle name="Linked Cell 3" xfId="514"/>
-    <cellStyle name="Millares_Hoja1" xfId="515"/>
-    <cellStyle name="Neutral" xfId="31" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="516"/>
-    <cellStyle name="Neutral 3" xfId="517"/>
-    <cellStyle name="Neutral 4" xfId="518"/>
-    <cellStyle name="Neutral 5" xfId="519"/>
-    <cellStyle name="Normal 2" xfId="520"/>
-    <cellStyle name="Normal 2 2" xfId="521"/>
-    <cellStyle name="Normal 2 3" xfId="522"/>
-    <cellStyle name="Normal 20" xfId="523"/>
-    <cellStyle name="Normal 20 2" xfId="524"/>
-    <cellStyle name="Normal 3" xfId="525"/>
-    <cellStyle name="Normal 3 2" xfId="526"/>
-    <cellStyle name="Normal 3 2 2" xfId="527"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="528"/>
-    <cellStyle name="Normal 3 2 3" xfId="529"/>
-    <cellStyle name="Normal 3 2 4" xfId="530"/>
-    <cellStyle name="Normal 4" xfId="531"/>
-    <cellStyle name="Normal 4 2" xfId="532"/>
-    <cellStyle name="Normal 5" xfId="533"/>
-    <cellStyle name="Normal_2013 Albania" xfId="534"/>
-    <cellStyle name="normální 2" xfId="535"/>
-    <cellStyle name="normální 2 2" xfId="536"/>
-    <cellStyle name="normální_povolenikpopbytudlezemipuvodu942000" xfId="537"/>
-    <cellStyle name="Note" xfId="538"/>
-    <cellStyle name="Note 2" xfId="539"/>
-    <cellStyle name="Note 3" xfId="540"/>
-    <cellStyle name="Note 4" xfId="541"/>
-    <cellStyle name="notes" xfId="542"/>
-    <cellStyle name="Notiz" xfId="32" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Notiz 10" xfId="543"/>
-    <cellStyle name="Notiz 11" xfId="544"/>
-    <cellStyle name="Notiz 11 2" xfId="545"/>
-    <cellStyle name="Notiz 12" xfId="546"/>
-    <cellStyle name="Notiz 12 2" xfId="547"/>
-    <cellStyle name="Notiz 2" xfId="548"/>
-    <cellStyle name="Notiz 2 2" xfId="549"/>
-    <cellStyle name="Notiz 2 3" xfId="550"/>
-    <cellStyle name="Notiz 3" xfId="551"/>
-    <cellStyle name="Notiz 3 2" xfId="552"/>
-    <cellStyle name="Notiz 4" xfId="553"/>
-    <cellStyle name="Notiz 4 2" xfId="554"/>
-    <cellStyle name="Notiz 5" xfId="555"/>
-    <cellStyle name="Notiz 5 2" xfId="556"/>
-    <cellStyle name="Notiz 5 2 2" xfId="557"/>
-    <cellStyle name="Notiz 5 2 2 2" xfId="558"/>
-    <cellStyle name="Notiz 5 2 2 2 2" xfId="559"/>
-    <cellStyle name="Notiz 5 2 2 2 2 2" xfId="560"/>
-    <cellStyle name="Notiz 5 2 2 2 2 2 2" xfId="561"/>
-    <cellStyle name="Notiz 5 2 2 2 2 2 2 2" xfId="1009"/>
-    <cellStyle name="Notiz 5 2 2 2 2 2 3" xfId="1008"/>
-    <cellStyle name="Notiz 5 2 2 2 2 3" xfId="562"/>
-    <cellStyle name="Notiz 5 2 2 2 2 3 2" xfId="1010"/>
-    <cellStyle name="Notiz 5 2 2 2 2 4" xfId="1007"/>
-    <cellStyle name="Notiz 5 2 2 2 3" xfId="563"/>
-    <cellStyle name="Notiz 5 2 2 2 3 2" xfId="564"/>
-    <cellStyle name="Notiz 5 2 2 2 3 2 2" xfId="1012"/>
-    <cellStyle name="Notiz 5 2 2 2 3 3" xfId="1011"/>
-    <cellStyle name="Notiz 5 2 2 2 4" xfId="565"/>
-    <cellStyle name="Notiz 5 2 2 2 4 2" xfId="1013"/>
-    <cellStyle name="Notiz 5 2 2 2 5" xfId="1006"/>
-    <cellStyle name="Notiz 5 2 2 3" xfId="566"/>
-    <cellStyle name="Notiz 5 2 2 3 2" xfId="567"/>
-    <cellStyle name="Notiz 5 2 2 3 2 2" xfId="568"/>
-    <cellStyle name="Notiz 5 2 2 3 2 2 2" xfId="1016"/>
-    <cellStyle name="Notiz 5 2 2 3 2 3" xfId="1015"/>
-    <cellStyle name="Notiz 5 2 2 3 3" xfId="569"/>
-    <cellStyle name="Notiz 5 2 2 3 3 2" xfId="1017"/>
-    <cellStyle name="Notiz 5 2 2 3 4" xfId="1014"/>
-    <cellStyle name="Notiz 5 2 2 4" xfId="570"/>
-    <cellStyle name="Notiz 5 2 2 4 2" xfId="571"/>
-    <cellStyle name="Notiz 5 2 2 4 2 2" xfId="1019"/>
-    <cellStyle name="Notiz 5 2 2 4 3" xfId="1018"/>
-    <cellStyle name="Notiz 5 2 2 5" xfId="572"/>
-    <cellStyle name="Notiz 5 2 2 5 2" xfId="1020"/>
-    <cellStyle name="Notiz 5 2 2 6" xfId="1005"/>
-    <cellStyle name="Notiz 5 2 3" xfId="573"/>
-    <cellStyle name="Notiz 5 2 3 2" xfId="574"/>
-    <cellStyle name="Notiz 5 2 3 2 2" xfId="575"/>
-    <cellStyle name="Notiz 5 2 3 2 2 2" xfId="576"/>
-    <cellStyle name="Notiz 5 2 3 2 2 2 2" xfId="1024"/>
-    <cellStyle name="Notiz 5 2 3 2 2 3" xfId="1023"/>
-    <cellStyle name="Notiz 5 2 3 2 3" xfId="577"/>
-    <cellStyle name="Notiz 5 2 3 2 3 2" xfId="1025"/>
-    <cellStyle name="Notiz 5 2 3 2 4" xfId="1022"/>
-    <cellStyle name="Notiz 5 2 3 3" xfId="578"/>
-    <cellStyle name="Notiz 5 2 3 3 2" xfId="579"/>
-    <cellStyle name="Notiz 5 2 3 3 2 2" xfId="1027"/>
-    <cellStyle name="Notiz 5 2 3 3 3" xfId="1026"/>
-    <cellStyle name="Notiz 5 2 3 4" xfId="580"/>
-    <cellStyle name="Notiz 5 2 3 4 2" xfId="1028"/>
-    <cellStyle name="Notiz 5 2 3 5" xfId="1021"/>
-    <cellStyle name="Notiz 5 2 4" xfId="581"/>
-    <cellStyle name="Notiz 5 2 4 2" xfId="582"/>
-    <cellStyle name="Notiz 5 2 4 2 2" xfId="583"/>
-    <cellStyle name="Notiz 5 2 4 2 2 2" xfId="1031"/>
-    <cellStyle name="Notiz 5 2 4 2 3" xfId="1030"/>
-    <cellStyle name="Notiz 5 2 4 3" xfId="584"/>
-    <cellStyle name="Notiz 5 2 4 3 2" xfId="1032"/>
-    <cellStyle name="Notiz 5 2 4 4" xfId="1029"/>
-    <cellStyle name="Notiz 5 2 5" xfId="585"/>
-    <cellStyle name="Notiz 5 2 5 2" xfId="586"/>
-    <cellStyle name="Notiz 5 2 5 2 2" xfId="1034"/>
-    <cellStyle name="Notiz 5 2 5 3" xfId="1033"/>
-    <cellStyle name="Notiz 5 2 6" xfId="587"/>
-    <cellStyle name="Notiz 5 2 6 2" xfId="1035"/>
-    <cellStyle name="Notiz 5 2 7" xfId="1004"/>
-    <cellStyle name="Notiz 5 3" xfId="588"/>
-    <cellStyle name="Notiz 5 4" xfId="589"/>
-    <cellStyle name="Notiz 5 4 2" xfId="590"/>
-    <cellStyle name="Notiz 5 4 2 2" xfId="591"/>
-    <cellStyle name="Notiz 5 4 2 2 2" xfId="592"/>
-    <cellStyle name="Notiz 5 4 2 2 2 2" xfId="1039"/>
-    <cellStyle name="Notiz 5 4 2 2 3" xfId="1038"/>
-    <cellStyle name="Notiz 5 4 2 3" xfId="593"/>
-    <cellStyle name="Notiz 5 4 2 3 2" xfId="1040"/>
-    <cellStyle name="Notiz 5 4 2 4" xfId="1037"/>
-    <cellStyle name="Notiz 5 4 3" xfId="594"/>
-    <cellStyle name="Notiz 5 4 3 2" xfId="595"/>
-    <cellStyle name="Notiz 5 4 3 2 2" xfId="1042"/>
-    <cellStyle name="Notiz 5 4 3 3" xfId="1041"/>
-    <cellStyle name="Notiz 5 4 4" xfId="596"/>
-    <cellStyle name="Notiz 5 4 4 2" xfId="1043"/>
-    <cellStyle name="Notiz 5 4 5" xfId="1036"/>
-    <cellStyle name="Notiz 5 5" xfId="597"/>
-    <cellStyle name="Notiz 5 5 2" xfId="598"/>
-    <cellStyle name="Notiz 5 5 2 2" xfId="599"/>
-    <cellStyle name="Notiz 5 5 2 2 2" xfId="1046"/>
-    <cellStyle name="Notiz 5 5 2 3" xfId="1045"/>
-    <cellStyle name="Notiz 5 5 3" xfId="600"/>
-    <cellStyle name="Notiz 5 5 3 2" xfId="1047"/>
-    <cellStyle name="Notiz 5 5 4" xfId="1044"/>
-    <cellStyle name="Notiz 5 6" xfId="601"/>
-    <cellStyle name="Notiz 5 6 2" xfId="602"/>
-    <cellStyle name="Notiz 5 6 2 2" xfId="1049"/>
-    <cellStyle name="Notiz 5 6 3" xfId="1048"/>
-    <cellStyle name="Notiz 5 7" xfId="603"/>
-    <cellStyle name="Notiz 5 7 2" xfId="1050"/>
-    <cellStyle name="Notiz 5 8" xfId="604"/>
-    <cellStyle name="Notiz 5 8 2" xfId="605"/>
-    <cellStyle name="Notiz 5 9" xfId="1003"/>
-    <cellStyle name="Notiz 6" xfId="606"/>
-    <cellStyle name="Notiz 6 2" xfId="607"/>
-    <cellStyle name="Notiz 6 3" xfId="608"/>
-    <cellStyle name="Notiz 6 3 2" xfId="609"/>
-    <cellStyle name="Notiz 7" xfId="610"/>
-    <cellStyle name="Notiz 7 2" xfId="611"/>
-    <cellStyle name="Notiz 7 3" xfId="612"/>
-    <cellStyle name="Notiz 7 4" xfId="613"/>
-    <cellStyle name="Notiz 8" xfId="614"/>
-    <cellStyle name="Notiz 9" xfId="615"/>
-    <cellStyle name="Output" xfId="616"/>
-    <cellStyle name="Output 2" xfId="617"/>
-    <cellStyle name="Output 3" xfId="618"/>
-    <cellStyle name="Percent 2" xfId="619"/>
-    <cellStyle name="Prozent 2" xfId="620"/>
-    <cellStyle name="Schlecht" xfId="33" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Schlecht 2" xfId="621"/>
-    <cellStyle name="Schlecht 3" xfId="622"/>
-    <cellStyle name="Schlecht 4" xfId="623"/>
-    <cellStyle name="Schlecht 5" xfId="624"/>
-    <cellStyle name="semestre" xfId="625"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 10" xfId="626"/>
-    <cellStyle name="Standard 10 2" xfId="627"/>
-    <cellStyle name="Standard 10 2 2" xfId="628"/>
-    <cellStyle name="Standard 10 2 2 2" xfId="1053"/>
-    <cellStyle name="Standard 10 2 3" xfId="1052"/>
-    <cellStyle name="Standard 10 3" xfId="629"/>
-    <cellStyle name="Standard 10 3 2" xfId="1054"/>
-    <cellStyle name="Standard 10 4" xfId="630"/>
-    <cellStyle name="Standard 10 5" xfId="1051"/>
-    <cellStyle name="Standard 11" xfId="631"/>
-    <cellStyle name="Standard 11 2" xfId="632"/>
-    <cellStyle name="Standard 11 2 2" xfId="633"/>
-    <cellStyle name="Standard 11 3" xfId="634"/>
-    <cellStyle name="Standard 12" xfId="635"/>
-    <cellStyle name="Standard 12 2" xfId="636"/>
-    <cellStyle name="Standard 12 2 2" xfId="637"/>
-    <cellStyle name="Standard 12 3" xfId="638"/>
-    <cellStyle name="Standard 12 3 2" xfId="639"/>
-    <cellStyle name="Standard 12 4" xfId="640"/>
-    <cellStyle name="Standard 13" xfId="641"/>
-    <cellStyle name="Standard 13 2" xfId="642"/>
-    <cellStyle name="Standard 13 2 2" xfId="1055"/>
-    <cellStyle name="Standard 13 3" xfId="643"/>
-    <cellStyle name="Standard 14" xfId="42"/>
-    <cellStyle name="Standard 15" xfId="644"/>
-    <cellStyle name="Standard 15 2" xfId="645"/>
-    <cellStyle name="Standard 16" xfId="646"/>
-    <cellStyle name="Standard 17" xfId="647"/>
-    <cellStyle name="Standard 18" xfId="45"/>
-    <cellStyle name="Standard 19" xfId="1128"/>
-    <cellStyle name="Standard 19 2" xfId="1131"/>
-    <cellStyle name="Standard 2" xfId="44"/>
-    <cellStyle name="Standard 2 2" xfId="649"/>
-    <cellStyle name="Standard 2 2 2" xfId="650"/>
-    <cellStyle name="Standard 2 2 3" xfId="651"/>
-    <cellStyle name="Standard 2 3" xfId="652"/>
-    <cellStyle name="Standard 2 3 2" xfId="653"/>
-    <cellStyle name="Standard 2 4" xfId="654"/>
-    <cellStyle name="Standard 2 4 2" xfId="655"/>
-    <cellStyle name="Standard 2 4 3" xfId="656"/>
-    <cellStyle name="Standard 2 5" xfId="657"/>
-    <cellStyle name="Standard 2 5 2" xfId="658"/>
-    <cellStyle name="Standard 2 5 3" xfId="659"/>
-    <cellStyle name="Standard 2 6" xfId="660"/>
-    <cellStyle name="Standard 2 7" xfId="661"/>
-    <cellStyle name="Standard 2 8" xfId="662"/>
-    <cellStyle name="Standard 2 9" xfId="648"/>
-    <cellStyle name="Standard 20" xfId="1129"/>
-    <cellStyle name="Standard 21" xfId="43"/>
-    <cellStyle name="Standard 3" xfId="663"/>
-    <cellStyle name="Standard 3 2" xfId="664"/>
-    <cellStyle name="Standard 3 3" xfId="665"/>
-    <cellStyle name="Standard 3 4" xfId="666"/>
-    <cellStyle name="Standard 4" xfId="667"/>
-    <cellStyle name="Standard 4 10" xfId="1056"/>
-    <cellStyle name="Standard 4 2" xfId="668"/>
-    <cellStyle name="Standard 4 2 2" xfId="669"/>
-    <cellStyle name="Standard 4 2 2 2" xfId="670"/>
-    <cellStyle name="Standard 4 2 2 2 2" xfId="671"/>
-    <cellStyle name="Standard 4 2 2 2 2 2" xfId="672"/>
-    <cellStyle name="Standard 4 2 2 2 2 2 2" xfId="673"/>
-    <cellStyle name="Standard 4 2 2 2 2 2 2 2" xfId="1062"/>
-    <cellStyle name="Standard 4 2 2 2 2 2 3" xfId="1061"/>
-    <cellStyle name="Standard 4 2 2 2 2 3" xfId="674"/>
-    <cellStyle name="Standard 4 2 2 2 2 3 2" xfId="1063"/>
-    <cellStyle name="Standard 4 2 2 2 2 4" xfId="1060"/>
-    <cellStyle name="Standard 4 2 2 2 3" xfId="675"/>
-    <cellStyle name="Standard 4 2 2 2 3 2" xfId="676"/>
-    <cellStyle name="Standard 4 2 2 2 3 2 2" xfId="1065"/>
-    <cellStyle name="Standard 4 2 2 2 3 3" xfId="1064"/>
-    <cellStyle name="Standard 4 2 2 2 4" xfId="677"/>
-    <cellStyle name="Standard 4 2 2 2 4 2" xfId="1066"/>
-    <cellStyle name="Standard 4 2 2 2 5" xfId="1059"/>
-    <cellStyle name="Standard 4 2 2 3" xfId="678"/>
-    <cellStyle name="Standard 4 2 2 3 2" xfId="679"/>
-    <cellStyle name="Standard 4 2 2 3 2 2" xfId="680"/>
-    <cellStyle name="Standard 4 2 2 3 2 2 2" xfId="1069"/>
-    <cellStyle name="Standard 4 2 2 3 2 3" xfId="1068"/>
-    <cellStyle name="Standard 4 2 2 3 3" xfId="681"/>
-    <cellStyle name="Standard 4 2 2 3 3 2" xfId="1070"/>
-    <cellStyle name="Standard 4 2 2 3 4" xfId="1067"/>
-    <cellStyle name="Standard 4 2 2 4" xfId="682"/>
-    <cellStyle name="Standard 4 2 2 4 2" xfId="683"/>
-    <cellStyle name="Standard 4 2 2 4 2 2" xfId="1072"/>
-    <cellStyle name="Standard 4 2 2 4 3" xfId="1071"/>
-    <cellStyle name="Standard 4 2 2 5" xfId="684"/>
-    <cellStyle name="Standard 4 2 2 5 2" xfId="1073"/>
-    <cellStyle name="Standard 4 2 2 6" xfId="1058"/>
-    <cellStyle name="Standard 4 2 3" xfId="685"/>
-    <cellStyle name="Standard 4 2 3 2" xfId="686"/>
-    <cellStyle name="Standard 4 2 3 2 2" xfId="687"/>
-    <cellStyle name="Standard 4 2 3 2 2 2" xfId="688"/>
-    <cellStyle name="Standard 4 2 3 2 2 2 2" xfId="1077"/>
-    <cellStyle name="Standard 4 2 3 2 2 3" xfId="1076"/>
-    <cellStyle name="Standard 4 2 3 2 3" xfId="689"/>
-    <cellStyle name="Standard 4 2 3 2 3 2" xfId="1078"/>
-    <cellStyle name="Standard 4 2 3 2 4" xfId="1075"/>
-    <cellStyle name="Standard 4 2 3 3" xfId="690"/>
-    <cellStyle name="Standard 4 2 3 3 2" xfId="691"/>
-    <cellStyle name="Standard 4 2 3 3 2 2" xfId="1080"/>
-    <cellStyle name="Standard 4 2 3 3 3" xfId="1079"/>
-    <cellStyle name="Standard 4 2 3 4" xfId="692"/>
-    <cellStyle name="Standard 4 2 3 4 2" xfId="1081"/>
-    <cellStyle name="Standard 4 2 3 5" xfId="1074"/>
-    <cellStyle name="Standard 4 2 4" xfId="693"/>
-    <cellStyle name="Standard 4 2 4 2" xfId="694"/>
-    <cellStyle name="Standard 4 2 4 2 2" xfId="695"/>
-    <cellStyle name="Standard 4 2 4 2 2 2" xfId="1084"/>
-    <cellStyle name="Standard 4 2 4 2 3" xfId="1083"/>
-    <cellStyle name="Standard 4 2 4 3" xfId="696"/>
-    <cellStyle name="Standard 4 2 4 3 2" xfId="1085"/>
-    <cellStyle name="Standard 4 2 4 4" xfId="1082"/>
-    <cellStyle name="Standard 4 2 5" xfId="697"/>
-    <cellStyle name="Standard 4 2 5 2" xfId="698"/>
-    <cellStyle name="Standard 4 2 5 2 2" xfId="1087"/>
-    <cellStyle name="Standard 4 2 5 3" xfId="1086"/>
-    <cellStyle name="Standard 4 2 6" xfId="699"/>
-    <cellStyle name="Standard 4 2 6 2" xfId="1088"/>
-    <cellStyle name="Standard 4 2 7" xfId="700"/>
-    <cellStyle name="Standard 4 2 7 2" xfId="1089"/>
-    <cellStyle name="Standard 4 2 8" xfId="1057"/>
-    <cellStyle name="Standard 4 3" xfId="701"/>
-    <cellStyle name="Standard 4 3 2" xfId="702"/>
-    <cellStyle name="Standard 4 3 2 2" xfId="703"/>
-    <cellStyle name="Standard 4 3 2 2 2" xfId="704"/>
-    <cellStyle name="Standard 4 3 2 2 2 2" xfId="705"/>
-    <cellStyle name="Standard 4 3 2 2 2 2 2" xfId="1094"/>
-    <cellStyle name="Standard 4 3 2 2 2 3" xfId="1093"/>
-    <cellStyle name="Standard 4 3 2 2 3" xfId="706"/>
-    <cellStyle name="Standard 4 3 2 2 3 2" xfId="1095"/>
-    <cellStyle name="Standard 4 3 2 2 4" xfId="1092"/>
-    <cellStyle name="Standard 4 3 2 3" xfId="707"/>
-    <cellStyle name="Standard 4 3 2 3 2" xfId="708"/>
-    <cellStyle name="Standard 4 3 2 3 2 2" xfId="1097"/>
-    <cellStyle name="Standard 4 3 2 3 3" xfId="1096"/>
-    <cellStyle name="Standard 4 3 2 4" xfId="709"/>
-    <cellStyle name="Standard 4 3 2 4 2" xfId="1098"/>
-    <cellStyle name="Standard 4 3 2 5" xfId="1091"/>
-    <cellStyle name="Standard 4 3 3" xfId="710"/>
-    <cellStyle name="Standard 4 3 3 2" xfId="711"/>
-    <cellStyle name="Standard 4 3 3 2 2" xfId="712"/>
-    <cellStyle name="Standard 4 3 3 2 2 2" xfId="1101"/>
-    <cellStyle name="Standard 4 3 3 2 3" xfId="1100"/>
-    <cellStyle name="Standard 4 3 3 3" xfId="713"/>
-    <cellStyle name="Standard 4 3 3 3 2" xfId="1102"/>
-    <cellStyle name="Standard 4 3 3 4" xfId="1099"/>
-    <cellStyle name="Standard 4 3 4" xfId="714"/>
-    <cellStyle name="Standard 4 3 4 2" xfId="715"/>
-    <cellStyle name="Standard 4 3 4 2 2" xfId="1104"/>
-    <cellStyle name="Standard 4 3 4 3" xfId="1103"/>
-    <cellStyle name="Standard 4 3 5" xfId="716"/>
-    <cellStyle name="Standard 4 3 5 2" xfId="1105"/>
-    <cellStyle name="Standard 4 3 6" xfId="717"/>
-    <cellStyle name="Standard 4 3 6 2" xfId="1106"/>
-    <cellStyle name="Standard 4 3 7" xfId="1090"/>
-    <cellStyle name="Standard 4 4" xfId="718"/>
-    <cellStyle name="Standard 4 4 2" xfId="719"/>
-    <cellStyle name="Standard 4 4 2 2" xfId="720"/>
-    <cellStyle name="Standard 4 4 2 2 2" xfId="721"/>
-    <cellStyle name="Standard 4 4 2 2 2 2" xfId="1110"/>
-    <cellStyle name="Standard 4 4 2 2 3" xfId="1109"/>
-    <cellStyle name="Standard 4 4 2 3" xfId="722"/>
-    <cellStyle name="Standard 4 4 2 3 2" xfId="1111"/>
-    <cellStyle name="Standard 4 4 2 4" xfId="1108"/>
-    <cellStyle name="Standard 4 4 3" xfId="723"/>
-    <cellStyle name="Standard 4 4 3 2" xfId="724"/>
-    <cellStyle name="Standard 4 4 3 2 2" xfId="1113"/>
-    <cellStyle name="Standard 4 4 3 3" xfId="1112"/>
-    <cellStyle name="Standard 4 4 4" xfId="725"/>
-    <cellStyle name="Standard 4 4 4 2" xfId="1114"/>
-    <cellStyle name="Standard 4 4 5" xfId="1107"/>
-    <cellStyle name="Standard 4 5" xfId="726"/>
-    <cellStyle name="Standard 4 5 2" xfId="727"/>
-    <cellStyle name="Standard 4 5 2 2" xfId="728"/>
-    <cellStyle name="Standard 4 5 2 2 2" xfId="1117"/>
-    <cellStyle name="Standard 4 5 2 3" xfId="1116"/>
-    <cellStyle name="Standard 4 5 3" xfId="729"/>
-    <cellStyle name="Standard 4 5 3 2" xfId="1118"/>
-    <cellStyle name="Standard 4 5 4" xfId="1115"/>
-    <cellStyle name="Standard 4 6" xfId="730"/>
-    <cellStyle name="Standard 4 6 2" xfId="731"/>
-    <cellStyle name="Standard 4 6 2 2" xfId="1120"/>
-    <cellStyle name="Standard 4 6 3" xfId="1119"/>
-    <cellStyle name="Standard 4 7" xfId="732"/>
-    <cellStyle name="Standard 4 7 2" xfId="733"/>
-    <cellStyle name="Standard 4 7 2 2" xfId="1122"/>
-    <cellStyle name="Standard 4 7 3" xfId="1121"/>
-    <cellStyle name="Standard 4 8" xfId="734"/>
-    <cellStyle name="Standard 4 8 2" xfId="1123"/>
-    <cellStyle name="Standard 4 9" xfId="735"/>
-    <cellStyle name="Standard 4 9 2" xfId="1124"/>
-    <cellStyle name="Standard 5" xfId="736"/>
-    <cellStyle name="Standard 5 2" xfId="737"/>
-    <cellStyle name="Standard 5 2 2" xfId="738"/>
-    <cellStyle name="Standard 6" xfId="739"/>
-    <cellStyle name="Standard 6 2" xfId="740"/>
-    <cellStyle name="Standard 6 3" xfId="741"/>
-    <cellStyle name="Standard 7" xfId="742"/>
-    <cellStyle name="Standard 7 2" xfId="743"/>
-    <cellStyle name="Standard 7 2 2" xfId="1125"/>
-    <cellStyle name="Standard 8" xfId="744"/>
-    <cellStyle name="Standard 8 2" xfId="745"/>
-    <cellStyle name="Standard 8 2 2" xfId="1126"/>
-    <cellStyle name="Standard 8 3" xfId="746"/>
-    <cellStyle name="Standard 9" xfId="747"/>
-    <cellStyle name="Standard 9 2" xfId="748"/>
-    <cellStyle name="Standard 9 2 2" xfId="1127"/>
-    <cellStyle name="Standard_MEDIUM" xfId="1130"/>
-    <cellStyle name="Style 27" xfId="749"/>
-    <cellStyle name="Style 35" xfId="750"/>
-    <cellStyle name="Style 36" xfId="751"/>
-    <cellStyle name="TableStyleLight1" xfId="752"/>
-    <cellStyle name="TableStyleLight1 2" xfId="753"/>
-    <cellStyle name="tête chapitre" xfId="754"/>
-    <cellStyle name="Title" xfId="755"/>
-    <cellStyle name="titre" xfId="756"/>
-    <cellStyle name="Total" xfId="757"/>
-    <cellStyle name="Total 2" xfId="758"/>
-    <cellStyle name="Total 3" xfId="759"/>
-    <cellStyle name="Überschrift" xfId="34" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="35" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1 2" xfId="760"/>
-    <cellStyle name="Überschrift 1 3" xfId="761"/>
-    <cellStyle name="Überschrift 1 4" xfId="762"/>
-    <cellStyle name="Überschrift 1 5" xfId="763"/>
-    <cellStyle name="Überschrift 2" xfId="36" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2 2" xfId="764"/>
-    <cellStyle name="Überschrift 2 3" xfId="765"/>
-    <cellStyle name="Überschrift 2 4" xfId="766"/>
-    <cellStyle name="Überschrift 2 5" xfId="767"/>
-    <cellStyle name="Überschrift 3" xfId="37" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3 2" xfId="768"/>
-    <cellStyle name="Überschrift 3 3" xfId="769"/>
-    <cellStyle name="Überschrift 3 4" xfId="770"/>
-    <cellStyle name="Überschrift 3 5" xfId="771"/>
-    <cellStyle name="Überschrift 4" xfId="38" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4 2" xfId="772"/>
-    <cellStyle name="Überschrift 4 3" xfId="773"/>
-    <cellStyle name="Überschrift 4 4" xfId="774"/>
-    <cellStyle name="Überschrift 4 5" xfId="775"/>
-    <cellStyle name="Überschrift 5" xfId="776"/>
-    <cellStyle name="Überschrift 6" xfId="777"/>
-    <cellStyle name="Überschrift 7" xfId="778"/>
-    <cellStyle name="Überschrift 8" xfId="779"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="39" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="780"/>
-    <cellStyle name="Verknüpfte Zelle 3" xfId="781"/>
-    <cellStyle name="Verknüpfte Zelle 4" xfId="782"/>
-    <cellStyle name="Verknüpfte Zelle 5" xfId="783"/>
-    <cellStyle name="Warnender Text" xfId="40" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Warnender Text 2" xfId="784"/>
-    <cellStyle name="Warnender Text 3" xfId="785"/>
-    <cellStyle name="Warnender Text 4" xfId="786"/>
-    <cellStyle name="Warnender Text 5" xfId="787"/>
-    <cellStyle name="Warning Text" xfId="788"/>
-    <cellStyle name="Warning Text 2" xfId="789"/>
-    <cellStyle name="Warning Text 3" xfId="790"/>
-    <cellStyle name="Zelle überprüfen" xfId="41" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="791"/>
-    <cellStyle name="Zelle überprüfen 3" xfId="792"/>
-    <cellStyle name="Zelle überprüfen 4" xfId="793"/>
-    <cellStyle name="Zelle überprüfen 5" xfId="794"/>
+  <cellStyles count="1108">
+    <cellStyle name="20 % - Akzent1 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 2 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 2 2 2 2" xfId="774" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 2 2 3" xfId="773" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 2 3 2" xfId="775" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 2 4" xfId="772" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 3 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 3 2 2" xfId="777" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 3 3" xfId="776" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 4 2" xfId="778" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20 % - Akzent1 2 2 5" xfId="771" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20 % - Akzent1 2 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20 % - Akzent1 2 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20 % - Akzent1 2 3 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20 % - Akzent1 2 3 2 2 2" xfId="781" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20 % - Akzent1 2 3 2 3" xfId="780" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20 % - Akzent1 2 3 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20 % - Akzent1 2 3 3 2" xfId="782" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20 % - Akzent1 2 3 4" xfId="779" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20 % - Akzent1 2 4" xfId="53" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20 % - Akzent1 2 4 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20 % - Akzent1 2 4 2 2" xfId="784" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20 % - Akzent1 2 4 3" xfId="783" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20 % - Akzent1 2 5" xfId="55" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20 % - Akzent1 2 5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20 % - Akzent1 2 5 2 2" xfId="786" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20 % - Akzent1 2 5 3" xfId="785" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20 % - Akzent2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 2 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 2 2 2 2" xfId="790" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 2 2 3" xfId="789" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 2 3 2" xfId="791" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 2 4" xfId="788" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 3" xfId="63" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 3 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 3 2 2" xfId="793" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 3 3" xfId="792" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 4" xfId="65" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 4 2" xfId="794" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20 % - Akzent2 2 2 5" xfId="787" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20 % - Akzent2 2 3" xfId="66" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20 % - Akzent2 2 3 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20 % - Akzent2 2 3 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="20 % - Akzent2 2 3 2 2 2" xfId="797" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="20 % - Akzent2 2 3 2 3" xfId="796" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20 % - Akzent2 2 3 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20 % - Akzent2 2 3 3 2" xfId="798" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20 % - Akzent2 2 3 4" xfId="795" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20 % - Akzent2 2 4" xfId="70" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20 % - Akzent2 2 4 2" xfId="71" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20 % - Akzent2 2 4 2 2" xfId="800" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20 % - Akzent2 2 4 3" xfId="799" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20 % - Akzent2 2 5" xfId="72" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20 % - Akzent2 2 5 2" xfId="73" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20 % - Akzent2 2 5 2 2" xfId="802" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20 % - Akzent2 2 5 3" xfId="801" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20 % - Akzent3 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 2 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 2 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 2 2 2 2" xfId="806" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 2 2 3" xfId="805" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 2 3 2" xfId="807" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 2 4" xfId="804" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 3 2 2" xfId="809" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 3 3" xfId="808" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 4" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 4 2" xfId="810" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="20 % - Akzent3 2 2 5" xfId="803" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="20 % - Akzent3 2 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20 % - Akzent3 2 3 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20 % - Akzent3 2 3 2 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20 % - Akzent3 2 3 2 2 2" xfId="813" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20 % - Akzent3 2 3 2 3" xfId="812" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20 % - Akzent3 2 3 3" xfId="86" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20 % - Akzent3 2 3 3 2" xfId="814" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20 % - Akzent3 2 3 4" xfId="811" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="20 % - Akzent3 2 4" xfId="87" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20 % - Akzent3 2 4 2" xfId="88" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20 % - Akzent3 2 4 2 2" xfId="816" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20 % - Akzent3 2 4 3" xfId="815" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="20 % - Akzent3 2 5" xfId="89" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="20 % - Akzent3 2 5 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="20 % - Akzent3 2 5 2 2" xfId="818" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="20 % - Akzent3 2 5 3" xfId="817" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="20 % - Akzent4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2" xfId="92" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 2 2 2 2" xfId="822" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 2 2 3" xfId="821" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 2 3 2" xfId="823" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 2 4" xfId="820" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 3" xfId="97" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 3 2 2" xfId="825" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 3 3" xfId="824" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 4" xfId="99" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 4 2" xfId="826" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="20 % - Akzent4 2 2 5" xfId="819" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="20 % - Akzent4 2 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="20 % - Akzent4 2 3 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="20 % - Akzent4 2 3 2 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="20 % - Akzent4 2 3 2 2 2" xfId="829" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="20 % - Akzent4 2 3 2 3" xfId="828" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="20 % - Akzent4 2 3 3" xfId="103" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="20 % - Akzent4 2 3 3 2" xfId="830" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="20 % - Akzent4 2 3 4" xfId="827" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="20 % - Akzent4 2 4" xfId="104" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="20 % - Akzent4 2 4 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="20 % - Akzent4 2 4 2 2" xfId="832" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="20 % - Akzent4 2 4 3" xfId="831" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="20 % - Akzent4 2 5" xfId="106" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="20 % - Akzent4 2 5 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="20 % - Akzent4 2 5 2 2" xfId="834" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="20 % - Akzent4 2 5 3" xfId="833" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="20 % - Akzent5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 2 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 2 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 2 2 2 2" xfId="838" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 2 2 3" xfId="837" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 2 3" xfId="113" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 2 3 2" xfId="839" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 2 4" xfId="836" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 3" xfId="114" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 3 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 3 2 2" xfId="841" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 3 3" xfId="840" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 4 2" xfId="842" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="20 % - Akzent5 2 2 5" xfId="835" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="20 % - Akzent5 2 3" xfId="117" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="20 % - Akzent5 2 3 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="20 % - Akzent5 2 3 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="20 % - Akzent5 2 3 2 2 2" xfId="845" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="20 % - Akzent5 2 3 2 3" xfId="844" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="20 % - Akzent5 2 3 3" xfId="120" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="20 % - Akzent5 2 3 3 2" xfId="846" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="20 % - Akzent5 2 3 4" xfId="843" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="20 % - Akzent5 2 4" xfId="121" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="20 % - Akzent5 2 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="20 % - Akzent5 2 4 2 2" xfId="848" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="20 % - Akzent5 2 4 3" xfId="847" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="20 % - Akzent5 2 5" xfId="123" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="20 % - Akzent5 2 5 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="20 % - Akzent5 2 5 2 2" xfId="850" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="20 % - Akzent5 2 5 3" xfId="849" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="20 % - Akzent6 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 2" xfId="127" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 2 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 2 2 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 2 2 2 2" xfId="854" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 2 2 3" xfId="853" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 2 3" xfId="130" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 2 3 2" xfId="855" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 2 4" xfId="852" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 3" xfId="131" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 3 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 3 2 2" xfId="857" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 3 3" xfId="856" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 4" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 4 2" xfId="858" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20 % - Akzent6 2 2 5" xfId="851" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="20 % - Akzent6 2 3" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="20 % - Akzent6 2 3 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="20 % - Akzent6 2 3 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="20 % - Akzent6 2 3 2 2 2" xfId="861" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="20 % - Akzent6 2 3 2 3" xfId="860" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="20 % - Akzent6 2 3 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="20 % - Akzent6 2 3 3 2" xfId="862" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="20 % - Akzent6 2 3 4" xfId="859" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="20 % - Akzent6 2 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="20 % - Akzent6 2 4 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="20 % - Akzent6 2 4 2 2" xfId="864" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="20 % - Akzent6 2 4 3" xfId="863" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="20 % - Akzent6 2 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="20 % - Akzent6 2 5 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="20 % - Akzent6 2 5 2 2" xfId="866" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="20 % - Akzent6 2 5 3" xfId="865" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="20% - Accent1" xfId="142" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="20% - Accent2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="20% - Accent3" xfId="148" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="149" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="150" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="20% - Accent4" xfId="151" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="153" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="20% - Accent5" xfId="154" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="156" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="20% - Accent6" xfId="157" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="159" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="20% - Akzent1" xfId="1" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="20% - Akzent2" xfId="2" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="20% - Akzent3" xfId="3" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="20% - Akzent4" xfId="4" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="20% - Akzent5" xfId="5" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="20% - Akzent6" xfId="6" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="40 % - Akzent1 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2" xfId="161" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 2 2" xfId="163" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 2 2 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 2 2 2 2" xfId="870" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 2 2 3" xfId="869" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 2 3 2" xfId="871" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 2 4" xfId="868" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 3" xfId="166" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 3 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 3 2 2" xfId="873" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 3 3" xfId="872" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 4" xfId="168" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 4 2" xfId="874" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="40 % - Akzent1 2 2 5" xfId="867" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="40 % - Akzent1 2 3" xfId="169" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="40 % - Akzent1 2 3 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="40 % - Akzent1 2 3 2 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="40 % - Akzent1 2 3 2 2 2" xfId="877" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="40 % - Akzent1 2 3 2 3" xfId="876" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="40 % - Akzent1 2 3 3" xfId="172" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="40 % - Akzent1 2 3 3 2" xfId="878" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="40 % - Akzent1 2 3 4" xfId="875" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="40 % - Akzent1 2 4" xfId="173" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="40 % - Akzent1 2 4 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="40 % - Akzent1 2 4 2 2" xfId="880" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="40 % - Akzent1 2 4 3" xfId="879" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="40 % - Akzent1 2 5" xfId="175" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="40 % - Akzent1 2 5 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="40 % - Akzent1 2 5 2 2" xfId="882" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="40 % - Akzent1 2 5 3" xfId="881" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="40 % - Akzent2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="40 % - Akzent2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 2 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 2 2 2 2" xfId="886" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 2 2 3" xfId="885" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 2 3" xfId="182" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 2 3 2" xfId="887" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 2 4" xfId="884" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 3" xfId="183" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 3 2" xfId="184" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 3 2 2" xfId="889" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 3 3" xfId="888" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 4" xfId="185" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 4 2" xfId="890" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="40 % - Akzent2 2 2 5" xfId="883" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="40 % - Akzent2 2 3" xfId="186" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="40 % - Akzent2 2 3 2" xfId="187" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="40 % - Akzent2 2 3 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="40 % - Akzent2 2 3 2 2 2" xfId="893" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="40 % - Akzent2 2 3 2 3" xfId="892" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="40 % - Akzent2 2 3 3" xfId="189" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="40 % - Akzent2 2 3 3 2" xfId="894" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="40 % - Akzent2 2 3 4" xfId="891" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="40 % - Akzent2 2 4" xfId="190" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="40 % - Akzent2 2 4 2" xfId="191" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="40 % - Akzent2 2 4 2 2" xfId="896" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="40 % - Akzent2 2 4 3" xfId="895" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="40 % - Akzent2 2 5" xfId="192" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="40 % - Akzent2 2 5 2" xfId="193" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="40 % - Akzent2 2 5 2 2" xfId="898" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="40 % - Akzent2 2 5 3" xfId="897" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="40 % - Akzent3 2" xfId="194" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2" xfId="195" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 2" xfId="196" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 2 2" xfId="197" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 2 2 2" xfId="198" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 2 2 2 2" xfId="902" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 2 2 3" xfId="901" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 2 3 2" xfId="903" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 2 4" xfId="900" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 3 2" xfId="201" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 3 2 2" xfId="905" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 3 3" xfId="904" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 4" xfId="202" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 4 2" xfId="906" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="40 % - Akzent3 2 2 5" xfId="899" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="40 % - Akzent3 2 3" xfId="203" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="40 % - Akzent3 2 3 2" xfId="204" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="40 % - Akzent3 2 3 2 2" xfId="205" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="40 % - Akzent3 2 3 2 2 2" xfId="909" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="40 % - Akzent3 2 3 2 3" xfId="908" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="40 % - Akzent3 2 3 3" xfId="206" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="40 % - Akzent3 2 3 3 2" xfId="910" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="40 % - Akzent3 2 3 4" xfId="907" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="40 % - Akzent3 2 4" xfId="207" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="40 % - Akzent3 2 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="40 % - Akzent3 2 4 2 2" xfId="912" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="40 % - Akzent3 2 4 3" xfId="911" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="40 % - Akzent3 2 5" xfId="209" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="40 % - Akzent3 2 5 2" xfId="210" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="40 % - Akzent3 2 5 2 2" xfId="914" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="40 % - Akzent3 2 5 3" xfId="913" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="40 % - Akzent4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 2 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 2 2 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 2 2 2 2" xfId="918" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 2 2 3" xfId="917" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 2 3" xfId="216" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 2 3 2" xfId="919" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 2 4" xfId="916" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 3" xfId="217" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 3 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 3 2 2" xfId="921" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 3 3" xfId="920" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 4" xfId="219" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 4 2" xfId="922" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="40 % - Akzent4 2 2 5" xfId="915" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="40 % - Akzent4 2 3" xfId="220" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="40 % - Akzent4 2 3 2" xfId="221" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="40 % - Akzent4 2 3 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="40 % - Akzent4 2 3 2 2 2" xfId="925" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="40 % - Akzent4 2 3 2 3" xfId="924" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="40 % - Akzent4 2 3 3" xfId="223" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="40 % - Akzent4 2 3 3 2" xfId="926" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="40 % - Akzent4 2 3 4" xfId="923" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="40 % - Akzent4 2 4" xfId="224" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="40 % - Akzent4 2 4 2" xfId="225" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="40 % - Akzent4 2 4 2 2" xfId="928" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="40 % - Akzent4 2 4 3" xfId="927" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="40 % - Akzent4 2 5" xfId="226" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="40 % - Akzent4 2 5 2" xfId="227" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="40 % - Akzent4 2 5 2 2" xfId="930" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="40 % - Akzent4 2 5 3" xfId="929" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="40 % - Akzent5 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2" xfId="229" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 2 2" xfId="231" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 2 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 2 2 2 2" xfId="934" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 2 2 3" xfId="933" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 2 3" xfId="233" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 2 3 2" xfId="935" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 2 4" xfId="932" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 3" xfId="234" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 3 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 3 2 2" xfId="937" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 3 3" xfId="936" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 4" xfId="236" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 4 2" xfId="938" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="40 % - Akzent5 2 2 5" xfId="931" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="40 % - Akzent5 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="40 % - Akzent5 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="40 % - Akzent5 2 3 2 2" xfId="239" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="40 % - Akzent5 2 3 2 2 2" xfId="941" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="40 % - Akzent5 2 3 2 3" xfId="940" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="40 % - Akzent5 2 3 3" xfId="240" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="40 % - Akzent5 2 3 3 2" xfId="942" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="40 % - Akzent5 2 3 4" xfId="939" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="40 % - Akzent5 2 4" xfId="241" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="40 % - Akzent5 2 4 2" xfId="242" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="40 % - Akzent5 2 4 2 2" xfId="944" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="40 % - Akzent5 2 4 3" xfId="943" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="40 % - Akzent5 2 5" xfId="243" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="40 % - Akzent5 2 5 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="40 % - Akzent5 2 5 2 2" xfId="946" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="40 % - Akzent5 2 5 3" xfId="945" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="40 % - Akzent6 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2" xfId="246" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 2 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 2 2 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 2 2 2 2" xfId="950" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 2 2 3" xfId="949" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 2 3" xfId="250" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 2 3 2" xfId="951" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 2 4" xfId="948" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 3" xfId="251" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 3 2" xfId="252" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 3 2 2" xfId="953" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 3 3" xfId="952" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 4" xfId="253" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 4 2" xfId="954" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="40 % - Akzent6 2 2 5" xfId="947" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="40 % - Akzent6 2 3" xfId="254" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="40 % - Akzent6 2 3 2" xfId="255" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="40 % - Akzent6 2 3 2 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="40 % - Akzent6 2 3 2 2 2" xfId="957" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="40 % - Akzent6 2 3 2 3" xfId="956" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="40 % - Akzent6 2 3 3" xfId="257" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="40 % - Akzent6 2 3 3 2" xfId="958" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="40 % - Akzent6 2 3 4" xfId="955" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="40 % - Akzent6 2 4" xfId="258" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="40 % - Akzent6 2 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="40 % - Akzent6 2 4 2 2" xfId="960" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="40 % - Akzent6 2 4 3" xfId="959" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="40 % - Akzent6 2 5" xfId="260" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="40 % - Akzent6 2 5 2" xfId="261" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="40 % - Akzent6 2 5 2 2" xfId="962" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="40 % - Akzent6 2 5 3" xfId="961" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="40% - Accent1" xfId="262" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="263" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="264" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="40% - Accent2" xfId="265" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="267" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="40% - Accent3" xfId="268" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="269" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="270" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="40% - Accent4" xfId="271" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="272" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="273" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="40% - Accent5" xfId="274" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="275" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="276" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="40% - Accent6" xfId="277" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="278" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="279" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="40% - Akzent1" xfId="7" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="40% - Akzent2" xfId="8" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="40% - Akzent3" xfId="9" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="40% - Akzent4" xfId="10" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="40% - Akzent5" xfId="11" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="40% - Akzent6" xfId="12" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="60 % - Akzent1 2" xfId="280" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="60 % - Akzent1 2 2" xfId="281" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="60 % - Akzent2 2" xfId="282" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="60 % - Akzent2 2 2" xfId="283" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="60 % - Akzent3 2" xfId="284" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="60 % - Akzent3 2 2" xfId="285" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="60 % - Akzent4 2" xfId="286" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="60 % - Akzent4 2 2" xfId="287" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="60 % - Akzent5 2" xfId="288" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="60 % - Akzent5 2 2" xfId="289" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="60 % - Akzent6 2" xfId="290" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="60 % - Akzent6 2 2" xfId="291" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="60% - Accent1" xfId="292" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="293" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="60% - Accent1 3" xfId="294" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="60% - Accent2" xfId="295" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="296" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="60% - Accent2 3" xfId="297" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="60% - Accent3" xfId="298" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="299" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="60% - Accent3 3" xfId="300" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="60% - Accent4" xfId="301" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="302" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="60% - Accent4 3" xfId="303" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="60% - Accent5" xfId="304" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="305" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="60% - Accent5 3" xfId="306" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="60% - Accent6" xfId="307" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="308" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="60% - Accent6 3" xfId="309" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="60% - Akzent1" xfId="13" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="60% - Akzent2" xfId="14" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="60% - Akzent3" xfId="15" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="60% - Akzent4" xfId="16" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="60% - Akzent5" xfId="17" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="60% - Akzent6" xfId="18" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Accent1" xfId="19" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Accent1 2" xfId="310" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Accent1 3" xfId="311" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Accent2" xfId="20" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Accent2 2" xfId="312" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Accent2 3" xfId="313" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Accent3" xfId="21" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Accent3 2" xfId="314" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Accent3 3" xfId="315" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Accent4" xfId="22" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Accent4 2" xfId="316" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Accent4 3" xfId="317" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Accent5" xfId="23" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Accent5 2" xfId="318" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Accent5 3" xfId="319" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Accent6" xfId="24" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Accent6 2" xfId="320" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Accent6 3" xfId="321" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Akzent1 2" xfId="322" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Akzent1 3" xfId="323" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Akzent1 4" xfId="324" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Akzent1 5" xfId="325" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Akzent2 2" xfId="326" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Akzent2 3" xfId="327" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Akzent2 4" xfId="328" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Akzent2 5" xfId="329" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Akzent3 2" xfId="330" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Akzent3 3" xfId="331" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Akzent3 4" xfId="332" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Akzent3 5" xfId="333" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Akzent4 2" xfId="334" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Akzent4 3" xfId="335" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Akzent4 4" xfId="336" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Akzent4 5" xfId="337" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Akzent5 2" xfId="338" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Akzent5 3" xfId="339" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Akzent5 4" xfId="340" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Akzent5 5" xfId="341" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Akzent6 2" xfId="342" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Akzent6 3" xfId="343" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Akzent6 4" xfId="344" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Akzent6 5" xfId="345" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="annee semestre" xfId="346" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Ausgabe 2" xfId="347" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Ausgabe 3" xfId="348" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Ausgabe 4" xfId="349" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Ausgabe 5" xfId="350" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Bad" xfId="28" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Bad 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Bad 3" xfId="352" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Berechnung 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Berechnung 3" xfId="354" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Berechnung 4" xfId="355" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Berechnung 5" xfId="356" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="C01_Main head" xfId="357" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="C02_Column heads" xfId="358" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="C03_Sub head bold" xfId="359" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="C03a_Sub head" xfId="360" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="C04_Total text white bold" xfId="361" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="C04a_Total text black with rule" xfId="362" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="C05_Main text" xfId="363" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="C06_Figs" xfId="364" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="C07_Figs 1 dec percent" xfId="365" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="C08_Figs 1 decimal" xfId="366" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="C09_Notes" xfId="367" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Calculation" xfId="368" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Calculation 2" xfId="369" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Calculation 3" xfId="370" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Check Cell" xfId="35" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Check Cell 2" xfId="371" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Check Cell 3" xfId="372" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="clsAltData" xfId="373" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="clsColumnHeader" xfId="374" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="clsData" xfId="375" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="clsDefault" xfId="376" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="clsRowHeader" xfId="377" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Comma [0]" xfId="378" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Comma [0] 10" xfId="379" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Comma [0] 11" xfId="380" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Comma [0] 11 2" xfId="381" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Comma [0] 12" xfId="382" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Comma [0] 13" xfId="383" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Comma [0] 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Comma [0] 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Comma [0] 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Comma [0] 3" xfId="387" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Comma [0] 3 2" xfId="388" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Comma [0] 4" xfId="389" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Comma [0] 4 2" xfId="390" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Comma [0] 5" xfId="391" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Comma [0] 5 2" xfId="392" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Comma [0] 5 3" xfId="393" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Comma [0] 5 4" xfId="394" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Comma [0] 6" xfId="395" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Comma [0] 6 2" xfId="396" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Comma [0] 6 3" xfId="397" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Comma [0] 6 4" xfId="398" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Comma [0] 6 4 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Comma [0] 7" xfId="400" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Comma [0] 7 2" xfId="401" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Comma [0] 7 3" xfId="402" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Comma [0] 8" xfId="403" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Comma [0] 9" xfId="404" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Comma 2" xfId="405" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Comma 3 2" xfId="406" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Comma 3 2 2" xfId="407" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="408" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="409" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Comma 3 2 2 2 2 2" xfId="410" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Comma 3 2 2 2 2 2 2" xfId="967" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Comma 3 2 2 2 2 3" xfId="966" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Comma 3 2 2 2 3" xfId="411" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Comma 3 2 2 2 3 2" xfId="968" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Comma 3 2 2 2 4" xfId="965" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="412" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Comma 3 2 2 3 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Comma 3 2 2 3 2 2" xfId="970" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Comma 3 2 2 3 3" xfId="969" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Comma 3 2 2 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Comma 3 2 2 4 2" xfId="971" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Comma 3 2 2 5" xfId="964" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Comma 3 2 3" xfId="415" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="416" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Comma 3 2 3 2 2" xfId="417" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Comma 3 2 3 2 2 2" xfId="974" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Comma 3 2 3 2 3" xfId="973" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Comma 3 2 3 3" xfId="418" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Comma 3 2 3 3 2" xfId="975" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Comma 3 2 3 4" xfId="972" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Comma 3 2 4" xfId="419" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Comma 3 2 4 2" xfId="420" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Comma 3 2 4 2 2" xfId="977" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Comma 3 2 4 3" xfId="976" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Comma 3 2 5" xfId="421" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Comma 3 2 5 2" xfId="978" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Comma 3 2 6" xfId="963" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Comma 5" xfId="422" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Currency [0]" xfId="423" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Currency [0] 10" xfId="424" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Currency [0] 11" xfId="425" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Currency [0] 11 2" xfId="426" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Currency [0] 12" xfId="427" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Currency [0] 13" xfId="428" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Currency [0] 2" xfId="429" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Currency [0] 2 2" xfId="430" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Currency [0] 2 2 2" xfId="431" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Currency [0] 3" xfId="432" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Currency [0] 3 2" xfId="433" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Currency [0] 4" xfId="434" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Currency [0] 4 2" xfId="435" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Currency [0] 5" xfId="436" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Currency [0] 5 2" xfId="437" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Currency [0] 5 3" xfId="438" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Currency [0] 5 4" xfId="439" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Currency [0] 6" xfId="440" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Currency [0] 6 2" xfId="441" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Currency [0] 6 3" xfId="442" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Currency [0] 6 4" xfId="443" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Currency [0] 6 4 2" xfId="444" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Currency [0] 7" xfId="445" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Currency [0] 7 2" xfId="446" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Currency [0] 7 3" xfId="447" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Currency [0] 8" xfId="448" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Currency [0] 9" xfId="449" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="données" xfId="450" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="donnéesbord" xfId="451" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Eingabe 2" xfId="452" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Eingabe 3" xfId="453" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Eingabe 4" xfId="454" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Eingabe 5" xfId="455" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Ergebnis 2" xfId="456" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Ergebnis 3" xfId="457" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Ergebnis 4" xfId="458" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Ergebnis 5" xfId="459" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Erklärender Text 2" xfId="460" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Erklärender Text 3" xfId="461" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Erklärender Text 4" xfId="462" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Erklärender Text 5" xfId="463" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Explanatory Text" xfId="464" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text 2" xfId="465" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Explanatory Text 3" xfId="466" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Good" xfId="25" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Good 2" xfId="467" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Good 3" xfId="468" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Gut 2" xfId="469" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Gut 3" xfId="470" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Gut 4" xfId="471" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Gut 5" xfId="472" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="H1" xfId="473" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="H2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="H3" xfId="475" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="H4" xfId="476" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="H5" xfId="477" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Heading 1" xfId="30" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Heading 2" xfId="31" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Heading 3" xfId="32" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Heading 4" xfId="33" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Hyperlink 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="479" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="480" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Hyperlink 3" xfId="481" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Hyperlink 4" xfId="483" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Hyperlink 5" xfId="484" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Îáű÷íűé_ÂŰŐÎÄ" xfId="485" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Input" xfId="486" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Input 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Input 3" xfId="488" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Komma 2" xfId="489" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Komma 2 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Komma 3" xfId="491" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Linked Cell" xfId="34" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Linked Cell 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Linked Cell 3" xfId="493" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Millares_Hoja1" xfId="494" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Neutral" xfId="26" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="495" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Neutral 3" xfId="496" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Neutral 4" xfId="497" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Neutral 5" xfId="498" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Normal 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Normal 2 3" xfId="501" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Normal 20" xfId="502" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Normal 20 2" xfId="503" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Normal 3" xfId="504" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Normal 3 2" xfId="505" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="507" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="508" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Normal 3 2 4" xfId="509" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Normal 4" xfId="510" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Normal 4 2" xfId="511" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Normal 5" xfId="512" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="normální 2" xfId="513" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="normální 2 2" xfId="514" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="normální_povolenikpopbytudlezemipuvodu942000" xfId="515" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Note" xfId="27" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Note 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Note 3" xfId="517" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Note 4" xfId="518" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="notes" xfId="519" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Notiz 10" xfId="520" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Notiz 11" xfId="521" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Notiz 11 2" xfId="522" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Notiz 12" xfId="523" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Notiz 12 2" xfId="524" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Notiz 2" xfId="525" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Notiz 2 2" xfId="526" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Notiz 2 3" xfId="527" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="Notiz 3" xfId="528" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Notiz 3 2" xfId="529" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Notiz 4" xfId="530" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Notiz 4 2" xfId="531" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Notiz 5" xfId="532" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Notiz 5 2" xfId="533" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Notiz 5 2 2" xfId="534" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Notiz 5 2 2 2" xfId="535" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 2 2" xfId="537" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 2 2 2" xfId="538" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 2 2 2 2" xfId="985" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 2 2 3" xfId="984" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 2 3" xfId="539" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 2 3 2" xfId="986" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 2 4" xfId="983" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 3" xfId="540" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 3 2" xfId="541" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 3 2 2" xfId="988" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 3 3" xfId="987" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 4" xfId="542" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 4 2" xfId="989" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Notiz 5 2 2 2 5" xfId="982" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Notiz 5 2 2 3" xfId="543" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Notiz 5 2 2 3 2" xfId="544" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Notiz 5 2 2 3 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Notiz 5 2 2 3 2 2 2" xfId="992" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Notiz 5 2 2 3 2 3" xfId="991" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Notiz 5 2 2 3 3" xfId="546" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Notiz 5 2 2 3 3 2" xfId="993" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Notiz 5 2 2 3 4" xfId="990" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Notiz 5 2 2 4" xfId="547" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Notiz 5 2 2 4 2" xfId="548" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Notiz 5 2 2 4 2 2" xfId="995" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Notiz 5 2 2 4 3" xfId="994" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Notiz 5 2 2 5" xfId="549" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Notiz 5 2 2 5 2" xfId="996" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Notiz 5 2 2 6" xfId="981" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Notiz 5 2 3" xfId="550" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Notiz 5 2 3 2" xfId="551" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Notiz 5 2 3 2 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Notiz 5 2 3 2 2 2" xfId="553" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Notiz 5 2 3 2 2 2 2" xfId="1000" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Notiz 5 2 3 2 2 3" xfId="999" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Notiz 5 2 3 2 3" xfId="554" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Notiz 5 2 3 2 3 2" xfId="1001" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Notiz 5 2 3 2 4" xfId="998" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Notiz 5 2 3 3" xfId="555" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Notiz 5 2 3 3 2" xfId="556" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Notiz 5 2 3 3 2 2" xfId="1003" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Notiz 5 2 3 3 3" xfId="1002" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Notiz 5 2 3 4" xfId="557" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Notiz 5 2 3 4 2" xfId="1004" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Notiz 5 2 3 5" xfId="997" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Notiz 5 2 4" xfId="558" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Notiz 5 2 4 2" xfId="559" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Notiz 5 2 4 2 2" xfId="560" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Notiz 5 2 4 2 2 2" xfId="1007" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Notiz 5 2 4 2 3" xfId="1006" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Notiz 5 2 4 3" xfId="561" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Notiz 5 2 4 3 2" xfId="1008" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Notiz 5 2 4 4" xfId="1005" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Notiz 5 2 5" xfId="562" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Notiz 5 2 5 2" xfId="563" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Notiz 5 2 5 2 2" xfId="1010" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Notiz 5 2 5 3" xfId="1009" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Notiz 5 2 6" xfId="564" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Notiz 5 2 6 2" xfId="1011" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Notiz 5 2 7" xfId="980" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Notiz 5 3" xfId="565" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Notiz 5 4" xfId="566" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Notiz 5 4 2" xfId="567" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Notiz 5 4 2 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Notiz 5 4 2 2 2" xfId="569" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Notiz 5 4 2 2 2 2" xfId="1015" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Notiz 5 4 2 2 3" xfId="1014" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Notiz 5 4 2 3" xfId="570" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Notiz 5 4 2 3 2" xfId="1016" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Notiz 5 4 2 4" xfId="1013" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Notiz 5 4 3" xfId="571" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Notiz 5 4 3 2" xfId="572" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Notiz 5 4 3 2 2" xfId="1018" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Notiz 5 4 3 3" xfId="1017" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Notiz 5 4 4" xfId="573" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Notiz 5 4 4 2" xfId="1019" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Notiz 5 4 5" xfId="1012" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Notiz 5 5" xfId="574" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Notiz 5 5 2" xfId="575" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Notiz 5 5 2 2" xfId="576" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Notiz 5 5 2 2 2" xfId="1022" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Notiz 5 5 2 3" xfId="1021" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Notiz 5 5 3" xfId="577" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Notiz 5 5 3 2" xfId="1023" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Notiz 5 5 4" xfId="1020" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Notiz 5 6" xfId="578" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Notiz 5 6 2" xfId="579" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Notiz 5 6 2 2" xfId="1025" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Notiz 5 6 3" xfId="1024" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Notiz 5 7" xfId="580" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Notiz 5 7 2" xfId="1026" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Notiz 5 8" xfId="581" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Notiz 5 8 2" xfId="582" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Notiz 5 9" xfId="979" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Notiz 6" xfId="583" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Notiz 6 2" xfId="584" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Notiz 6 3" xfId="585" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Notiz 6 3 2" xfId="586" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Notiz 7" xfId="587" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Notiz 7 2" xfId="588" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Notiz 7 3" xfId="589" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Notiz 7 4" xfId="590" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Notiz 8" xfId="591" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Notiz 9" xfId="592" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Output" xfId="593" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Output 2" xfId="594" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Output 3" xfId="595" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Percent 2" xfId="596" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Prozent 2" xfId="597" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Schlecht 2" xfId="598" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Schlecht 3" xfId="599" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Schlecht 4" xfId="600" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Schlecht 5" xfId="601" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="semestre" xfId="602" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Standard 10" xfId="603" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Standard 10 2" xfId="604" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Standard 10 2 2" xfId="605" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Standard 10 2 2 2" xfId="1029" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Standard 10 2 3" xfId="1028" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Standard 10 3" xfId="606" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Standard 10 3 2" xfId="1030" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Standard 10 4" xfId="607" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Standard 10 5" xfId="1027" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Standard 11" xfId="608" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Standard 11 2" xfId="609" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Standard 11 2 2" xfId="610" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Standard 11 3" xfId="611" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Standard 12" xfId="612" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Standard 12 2" xfId="613" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Standard 12 2 2" xfId="614" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Standard 12 3" xfId="615" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Standard 12 3 2" xfId="616" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Standard 12 4" xfId="617" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Standard 13" xfId="618" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Standard 13 2" xfId="619" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Standard 13 2 2" xfId="1031" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Standard 13 3" xfId="620" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Standard 14" xfId="36" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Standard 15" xfId="621" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Standard 15 2" xfId="622" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Standard 16" xfId="623" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Standard 17" xfId="624" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Standard 18" xfId="39" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Standard 19" xfId="1104" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Standard 19 2" xfId="1107" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Standard 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Standard 2 2" xfId="626" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Standard 2 2 2" xfId="627" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Standard 2 2 3" xfId="628" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Standard 2 3" xfId="629" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Standard 2 3 2" xfId="630" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Standard 2 4" xfId="631" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Standard 2 4 2" xfId="632" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Standard 2 4 3" xfId="633" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Standard 2 5" xfId="634" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Standard 2 5 2" xfId="635" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Standard 2 5 3" xfId="636" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Standard 2 6" xfId="637" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Standard 2 7" xfId="638" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Standard 2 8" xfId="639" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Standard 2 9" xfId="625" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Standard 20" xfId="1105" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Standard 21" xfId="37" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Standard 3" xfId="640" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Standard 3 2" xfId="641" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Standard 3 3" xfId="642" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Standard 3 4" xfId="643" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Standard 4" xfId="644" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Standard 4 10" xfId="1032" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Standard 4 2" xfId="645" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Standard 4 2 2" xfId="646" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Standard 4 2 2 2" xfId="647" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Standard 4 2 2 2 2" xfId="648" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Standard 4 2 2 2 2 2" xfId="649" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Standard 4 2 2 2 2 2 2" xfId="650" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Standard 4 2 2 2 2 2 2 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Standard 4 2 2 2 2 2 3" xfId="1037" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Standard 4 2 2 2 2 3" xfId="651" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Standard 4 2 2 2 2 3 2" xfId="1039" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Standard 4 2 2 2 2 4" xfId="1036" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Standard 4 2 2 2 3" xfId="652" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Standard 4 2 2 2 3 2" xfId="653" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Standard 4 2 2 2 3 2 2" xfId="1041" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Standard 4 2 2 2 3 3" xfId="1040" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Standard 4 2 2 2 4" xfId="654" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Standard 4 2 2 2 4 2" xfId="1042" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Standard 4 2 2 2 5" xfId="1035" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Standard 4 2 2 3" xfId="655" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Standard 4 2 2 3 2" xfId="656" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Standard 4 2 2 3 2 2" xfId="657" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Standard 4 2 2 3 2 2 2" xfId="1045" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Standard 4 2 2 3 2 3" xfId="1044" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Standard 4 2 2 3 3" xfId="658" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Standard 4 2 2 3 3 2" xfId="1046" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Standard 4 2 2 3 4" xfId="1043" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Standard 4 2 2 4" xfId="659" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Standard 4 2 2 4 2" xfId="660" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Standard 4 2 2 4 2 2" xfId="1048" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Standard 4 2 2 4 3" xfId="1047" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Standard 4 2 2 5" xfId="661" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Standard 4 2 2 5 2" xfId="1049" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Standard 4 2 2 6" xfId="1034" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Standard 4 2 3" xfId="662" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Standard 4 2 3 2" xfId="663" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Standard 4 2 3 2 2" xfId="664" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Standard 4 2 3 2 2 2" xfId="665" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Standard 4 2 3 2 2 2 2" xfId="1053" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Standard 4 2 3 2 2 3" xfId="1052" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Standard 4 2 3 2 3" xfId="666" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Standard 4 2 3 2 3 2" xfId="1054" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Standard 4 2 3 2 4" xfId="1051" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Standard 4 2 3 3" xfId="667" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Standard 4 2 3 3 2" xfId="668" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Standard 4 2 3 3 2 2" xfId="1056" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Standard 4 2 3 3 3" xfId="1055" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Standard 4 2 3 4" xfId="669" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Standard 4 2 3 4 2" xfId="1057" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Standard 4 2 3 5" xfId="1050" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Standard 4 2 4" xfId="670" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Standard 4 2 4 2" xfId="671" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Standard 4 2 4 2 2" xfId="672" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Standard 4 2 4 2 2 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Standard 4 2 4 2 3" xfId="1059" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Standard 4 2 4 3" xfId="673" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Standard 4 2 4 3 2" xfId="1061" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Standard 4 2 4 4" xfId="1058" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Standard 4 2 5" xfId="674" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Standard 4 2 5 2" xfId="675" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Standard 4 2 5 2 2" xfId="1063" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Standard 4 2 5 3" xfId="1062" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Standard 4 2 6" xfId="676" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Standard 4 2 6 2" xfId="1064" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Standard 4 2 7" xfId="677" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Standard 4 2 7 2" xfId="1065" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Standard 4 2 8" xfId="1033" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Standard 4 3" xfId="678" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Standard 4 3 2" xfId="679" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Standard 4 3 2 2" xfId="680" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Standard 4 3 2 2 2" xfId="681" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Standard 4 3 2 2 2 2" xfId="682" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Standard 4 3 2 2 2 2 2" xfId="1070" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Standard 4 3 2 2 2 3" xfId="1069" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Standard 4 3 2 2 3" xfId="683" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Standard 4 3 2 2 3 2" xfId="1071" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Standard 4 3 2 2 4" xfId="1068" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Standard 4 3 2 3" xfId="684" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Standard 4 3 2 3 2" xfId="685" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Standard 4 3 2 3 2 2" xfId="1073" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Standard 4 3 2 3 3" xfId="1072" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Standard 4 3 2 4" xfId="686" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Standard 4 3 2 4 2" xfId="1074" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Standard 4 3 2 5" xfId="1067" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Standard 4 3 3" xfId="687" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Standard 4 3 3 2" xfId="688" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Standard 4 3 3 2 2" xfId="689" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Standard 4 3 3 2 2 2" xfId="1077" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Standard 4 3 3 2 3" xfId="1076" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Standard 4 3 3 3" xfId="690" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Standard 4 3 3 3 2" xfId="1078" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Standard 4 3 3 4" xfId="1075" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Standard 4 3 4" xfId="691" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Standard 4 3 4 2" xfId="692" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Standard 4 3 4 2 2" xfId="1080" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Standard 4 3 4 3" xfId="1079" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Standard 4 3 5" xfId="693" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Standard 4 3 5 2" xfId="1081" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Standard 4 3 6" xfId="694" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Standard 4 3 6 2" xfId="1082" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Standard 4 3 7" xfId="1066" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Standard 4 4" xfId="695" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Standard 4 4 2" xfId="696" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Standard 4 4 2 2" xfId="697" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Standard 4 4 2 2 2" xfId="698" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Standard 4 4 2 2 2 2" xfId="1086" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Standard 4 4 2 2 3" xfId="1085" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Standard 4 4 2 3" xfId="699" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Standard 4 4 2 3 2" xfId="1087" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Standard 4 4 2 4" xfId="1084" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Standard 4 4 3" xfId="700" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Standard 4 4 3 2" xfId="701" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Standard 4 4 3 2 2" xfId="1089" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Standard 4 4 3 3" xfId="1088" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Standard 4 4 4" xfId="702" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Standard 4 4 4 2" xfId="1090" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Standard 4 4 5" xfId="1083" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Standard 4 5" xfId="703" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Standard 4 5 2" xfId="704" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Standard 4 5 2 2" xfId="705" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Standard 4 5 2 2 2" xfId="1093" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Standard 4 5 2 3" xfId="1092" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Standard 4 5 3" xfId="706" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Standard 4 5 3 2" xfId="1094" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Standard 4 5 4" xfId="1091" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Standard 4 6" xfId="707" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Standard 4 6 2" xfId="708" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Standard 4 6 2 2" xfId="1096" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Standard 4 6 3" xfId="1095" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Standard 4 7" xfId="709" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Standard 4 7 2" xfId="710" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Standard 4 7 2 2" xfId="1098" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Standard 4 7 3" xfId="1097" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Standard 4 8" xfId="711" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Standard 4 8 2" xfId="1099" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Standard 4 9" xfId="712" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Standard 4 9 2" xfId="1100" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Standard 5" xfId="713" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Standard 5 2" xfId="714" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Standard 5 2 2" xfId="715" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Standard 6" xfId="716" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Standard 6 2" xfId="717" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Standard 6 3" xfId="718" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Standard 7" xfId="719" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Standard 7 2" xfId="720" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Standard 7 2 2" xfId="1101" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Standard 8" xfId="721" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Standard 8 2" xfId="722" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Standard 8 2 2" xfId="1102" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Standard 8 3" xfId="723" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Standard 9" xfId="724" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Standard 9 2" xfId="725" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Standard 9 2 2" xfId="1103" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Standard_MEDIUM" xfId="1106" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Style 27" xfId="726" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Style 35" xfId="727" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Style 36" xfId="728" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="TableStyleLight1" xfId="729" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="TableStyleLight1 2" xfId="730" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="tête chapitre" xfId="731" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Title" xfId="29" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="titre" xfId="732" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Total" xfId="733" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="734" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Total 3" xfId="735" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Überschrift 1 2" xfId="736" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Überschrift 1 3" xfId="737" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Überschrift 1 4" xfId="738" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Überschrift 1 5" xfId="739" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Überschrift 2 2" xfId="740" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Überschrift 2 3" xfId="741" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Überschrift 2 4" xfId="742" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Überschrift 2 5" xfId="743" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Überschrift 3 2" xfId="744" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Überschrift 3 3" xfId="745" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Überschrift 3 4" xfId="746" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Überschrift 3 5" xfId="747" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Überschrift 4 2" xfId="748" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Überschrift 4 3" xfId="749" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Überschrift 4 4" xfId="750" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Überschrift 4 5" xfId="751" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Überschrift 5" xfId="752" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Überschrift 6" xfId="753" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Überschrift 7" xfId="754" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Überschrift 8" xfId="755" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="756" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Verknüpfte Zelle 3" xfId="757" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Verknüpfte Zelle 4" xfId="758" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Verknüpfte Zelle 5" xfId="759" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Warnender Text 2" xfId="760" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Warnender Text 3" xfId="761" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Warnender Text 4" xfId="762" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Warnender Text 5" xfId="763" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Warning Text" xfId="764" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Warning Text 2" xfId="765" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Warning Text 3" xfId="766" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="767" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Zelle überprüfen 3" xfId="768" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Zelle überprüfen 4" xfId="769" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Zelle überprüfen 5" xfId="770" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3956,14 +3914,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4001,9 +3962,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4036,9 +3997,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4071,9 +4049,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4246,712 +4241,714 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:3" ht="51" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:3" ht="38.25" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <v>17098242</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="12">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="10">
         <v>2166086</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="10">
         <v>783562</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="12">
         <v>101.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <v>643801</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="12">
         <v>117.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="10">
         <v>603550</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="12">
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="10">
         <v>505370</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="12">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="10">
         <v>450295</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="12">
         <v>23.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="10">
         <v>385847</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="12">
         <v>14.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="10">
         <v>357022</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="12">
         <v>234.4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="10">
         <v>338145</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="10">
         <v>312685</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="12">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="10">
         <v>301340</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="12">
         <v>202.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="10">
         <v>243610</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="12">
         <v>270.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="10">
         <v>238391</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="12">
         <v>86.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="10">
         <v>207600</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="12">
         <v>46.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="10">
         <v>131957</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="12">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="10">
         <v>110879</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="12">
         <v>66.099999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="10">
         <v>103000</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="12">
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="10">
         <v>93028</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="12">
         <v>108.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="10">
         <v>92090</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="12">
         <v>113.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="10">
         <v>86600</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="12">
         <v>116.4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="10">
         <v>83871</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="12">
         <v>105.3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="10">
         <v>78867</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="12">
         <v>137.30000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="10">
         <v>77474</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="12">
         <v>101.2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="10">
         <v>70273</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="12">
         <v>68.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="10">
         <v>69700</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="12">
         <v>56.9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="10">
         <v>65300</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="12">
         <v>46.8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="10">
         <v>64589</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="10">
         <v>56594</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="12">
         <v>75.7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="10">
         <v>51197</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="12">
         <v>69.3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A36" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="10">
         <v>49035</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="12">
         <v>113.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A37" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="10">
         <v>45228</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="10">
         <v>43094</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="12">
         <v>134.1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="10">
         <v>41543</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="12">
         <v>502.3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="10">
         <v>41277</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="12">
         <v>210.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="10">
         <v>33851</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="12">
         <v>123.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A42" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="10">
         <v>30528</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="12">
         <v>372.8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="10">
         <v>29743</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="12">
         <v>102.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A44" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="10">
         <v>28748</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="12">
         <v>106.7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A45" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="10">
         <v>25713</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="12">
         <v>82.4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="10">
         <v>20273</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="12">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="10">
         <v>13812</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="12">
         <v>46.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="10">
         <v>10887</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A49" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="10">
         <v>9251</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="12">
         <v>125.6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="10">
         <v>2586</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="12">
         <v>218.8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="10">
         <v>1393</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="12">
         <v>35.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A52" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="10">
         <v>572</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="12">
         <v>145.9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A53" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="10">
         <v>468</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="12">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A54" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="10">
         <v>316</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="12">
         <v>1336.3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:6" ht="15">
+      <c r="A55" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="10">
         <v>194</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="12">
         <v>861.9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="10">
         <v>160</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="12">
         <v>233.8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A57" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="10">
         <v>61</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="12">
         <v>549.29999999999995</v>
       </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A58" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="10">
         <v>7</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="12">
         <v>3422.8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A59" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="10">
         <v>2</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="12">
         <v>25709.4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A60" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="12">
         <v>1825</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="27" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A64" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A65" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A66" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A67" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A68" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="70" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A71" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A72" s="9" t="s">
         <v>43</v>
       </c>
     </row>
